--- a/dfi.xlsx
+++ b/dfi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,9 @@
       <c r="N4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>81.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -632,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>81.52</v>
+        <v>121.52</v>
       </c>
     </row>
     <row r="6">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>95.48038527526273</v>
+        <v>132.2958780197393</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>112.0503852752627</v>
+        <v>148.8658780197393</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>126.6825597627757</v>
+        <v>171.9514888099668</v>
       </c>
     </row>
     <row r="9">
@@ -1445,7 +1447,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -1457,7 +1459,7 @@
         <v>81.52</v>
       </c>
       <c r="O30" t="n">
-        <v>89.48038527526273</v>
+        <v>162.52</v>
       </c>
     </row>
     <row r="31">
@@ -1478,7 +1480,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -1487,10 +1489,10 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>89.48038527526273</v>
+        <v>103.52</v>
       </c>
       <c r="O31" t="n">
-        <v>89.48038527526273</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="32">
@@ -1511,7 +1513,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -1520,10 +1522,10 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>89.48038527526273</v>
+        <v>103.52</v>
       </c>
       <c r="O32" t="n">
-        <v>121.52</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="33">
@@ -1544,7 +1546,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -1553,10 +1555,10 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>95.48038527526273</v>
+        <v>103.52</v>
       </c>
       <c r="O33" t="n">
-        <v>106.0503852752627</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="34">
@@ -1577,12 +1579,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -1610,19 +1612,19 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N35" t="n">
         <v>103.52</v>
       </c>
       <c r="O35" t="n">
-        <v>103.52</v>
+        <v>114.04</v>
       </c>
     </row>
     <row r="36">
@@ -1643,16 +1645,16 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>103.52</v>
+        <v>114.04</v>
       </c>
       <c r="O36" t="n">
         <v>143.52</v>
@@ -1676,19 +1678,19 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>103.52</v>
+        <v>121.52</v>
       </c>
       <c r="O37" t="n">
-        <v>103.52</v>
+        <v>126.2958780197393</v>
       </c>
     </row>
     <row r="38">
@@ -1709,19 +1711,19 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>103.52</v>
+        <v>126.2958780197393</v>
       </c>
       <c r="O38" t="n">
-        <v>114.04</v>
+        <v>126.2958780197393</v>
       </c>
     </row>
     <row r="39">
@@ -1742,19 +1744,19 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>106.0503852752627</v>
+        <v>126.2958780197393</v>
       </c>
       <c r="O39" t="n">
-        <v>106.0503852752627</v>
+        <v>161.52</v>
       </c>
     </row>
     <row r="40">
@@ -1780,14 +1782,14 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>106.0503852752627</v>
+        <v>132.2958780197393</v>
       </c>
       <c r="O40" t="n">
-        <v>132.9695463294577</v>
+        <v>142.8658780197393</v>
       </c>
     </row>
     <row r="41">
@@ -1808,19 +1810,19 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>112.0503852752627</v>
+        <v>142.8658780197393</v>
       </c>
       <c r="O41" t="n">
-        <v>120.6825597627757</v>
+        <v>142.8658780197393</v>
       </c>
     </row>
     <row r="42">
@@ -1841,19 +1843,19 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>114.04</v>
+        <v>142.8658780197393</v>
       </c>
       <c r="O42" t="n">
-        <v>143.52</v>
+        <v>175.272172532319</v>
       </c>
     </row>
     <row r="43">
@@ -1874,7 +1876,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -1883,10 +1885,10 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>120.6825597627757</v>
+        <v>143.52</v>
       </c>
       <c r="O43" t="n">
-        <v>120.6825597627757</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="44">
@@ -1907,7 +1909,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -1916,10 +1918,10 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>120.6825597627757</v>
+        <v>143.52</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5395463294577</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="45">
@@ -1940,7 +1942,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -1949,10 +1951,10 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>121.52</v>
+        <v>143.52</v>
       </c>
       <c r="O45" t="n">
-        <v>126.9695463294577</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="46">
@@ -1973,19 +1975,19 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>126.6825597627757</v>
+        <v>143.52</v>
       </c>
       <c r="O46" t="n">
-        <v>137.6466121087433</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="47">
@@ -2006,19 +2008,19 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>126.9695463294577</v>
+        <v>143.52</v>
       </c>
       <c r="O47" t="n">
-        <v>126.9695463294577</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="48">
@@ -2039,19 +2041,19 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>126.9695463294577</v>
+        <v>148.8658780197393</v>
       </c>
       <c r="O48" t="n">
-        <v>161.52</v>
+        <v>165.9514888099668</v>
       </c>
     </row>
     <row r="49">
@@ -2072,19 +2074,19 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>132.9695463294577</v>
+        <v>154.04</v>
       </c>
       <c r="O49" t="n">
-        <v>143.5395463294577</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="50">
@@ -2105,19 +2107,19 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>137.6466121087433</v>
+        <v>161.52</v>
       </c>
       <c r="O50" t="n">
-        <v>137.6466121087433</v>
+        <v>169.272172532319</v>
       </c>
     </row>
     <row r="51">
@@ -2138,19 +2140,19 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>137.6466121087433</v>
+        <v>162.52</v>
       </c>
       <c r="O51" t="n">
-        <v>163.6984381699549</v>
+        <v>162.52</v>
       </c>
     </row>
     <row r="52">
@@ -2171,20 +2173,18 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>143.52</v>
-      </c>
-      <c r="O52" t="n">
-        <v>143.52</v>
-      </c>
+        <v>162.52</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2204,19 +2204,19 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>143.52</v>
+        <v>165.9514888099668</v>
       </c>
       <c r="O53" t="n">
-        <v>143.52</v>
+        <v>165.9514888099668</v>
       </c>
     </row>
     <row r="54">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>143.52</v>
+        <v>165.9514888099668</v>
       </c>
       <c r="O54" t="n">
-        <v>183.52</v>
+        <v>191.842172532319</v>
       </c>
     </row>
     <row r="55">
@@ -2270,18 +2270,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>143.52</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
+        <v>169.272172532319</v>
+      </c>
+      <c r="O55" t="n">
+        <v>169.272172532319</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2301,19 +2303,19 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>143.5395463294577</v>
+        <v>169.272172532319</v>
       </c>
       <c r="O56" t="n">
-        <v>143.5395463294577</v>
+        <v>174.52</v>
       </c>
     </row>
     <row r="57">
@@ -2334,19 +2336,19 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>143.5395463294577</v>
+        <v>171.9514888099668</v>
       </c>
       <c r="O57" t="n">
-        <v>182.3183746150233</v>
+        <v>181.551646018334</v>
       </c>
     </row>
     <row r="58">
@@ -2367,7 +2369,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -2376,10 +2378,10 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>149.5395463294577</v>
+        <v>174.52</v>
       </c>
       <c r="O58" t="n">
-        <v>157.6984381699549</v>
+        <v>189.5664118860167</v>
       </c>
     </row>
     <row r="59">
@@ -2400,19 +2402,19 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>157.6984381699549</v>
+        <v>175.272172532319</v>
       </c>
       <c r="O59" t="n">
-        <v>157.6984381699549</v>
+        <v>185.842172532319</v>
       </c>
     </row>
     <row r="60">
@@ -2433,19 +2435,19 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>157.6984381699549</v>
+        <v>181.551646018334</v>
       </c>
       <c r="O60" t="n">
-        <v>191.8183746150233</v>
+        <v>181.551646018334</v>
       </c>
     </row>
     <row r="61">
@@ -2466,19 +2468,19 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>161.52</v>
+        <v>181.551646018334</v>
       </c>
       <c r="O61" t="n">
-        <v>176.3183746150233</v>
+        <v>247.9988814860635</v>
       </c>
     </row>
     <row r="62">
@@ -2499,19 +2501,19 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>163.6984381699549</v>
+        <v>183.52</v>
       </c>
       <c r="O62" t="n">
-        <v>173.2985953783221</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="63">
@@ -2532,19 +2534,19 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>173.2985953783221</v>
+        <v>183.52</v>
       </c>
       <c r="O63" t="n">
-        <v>173.2985953783221</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="64">
@@ -2565,19 +2567,19 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>173.2985953783221</v>
+        <v>183.52</v>
       </c>
       <c r="O64" t="n">
-        <v>215.2920894528679</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="65">
@@ -2598,19 +2600,19 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>176.3183746150233</v>
+        <v>183.52</v>
       </c>
       <c r="O65" t="n">
-        <v>176.3183746150233</v>
+        <v>187.551646018334</v>
       </c>
     </row>
     <row r="66">
@@ -2631,19 +2633,19 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>176.3183746150233</v>
+        <v>185.842172532319</v>
       </c>
       <c r="O66" t="n">
-        <v>201.52</v>
+        <v>185.842172532319</v>
       </c>
     </row>
     <row r="67">
@@ -2669,14 +2671,14 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>182.3183746150233</v>
+        <v>185.842172532319</v>
       </c>
       <c r="O67" t="n">
-        <v>185.8183746150233</v>
+        <v>195.5664118860167</v>
       </c>
     </row>
     <row r="68">
@@ -2697,19 +2699,19 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>183.52</v>
+        <v>187.551646018334</v>
       </c>
       <c r="O68" t="n">
-        <v>183.52</v>
+        <v>198.071646018334</v>
       </c>
     </row>
     <row r="69">
@@ -2730,19 +2732,19 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>183.52</v>
+        <v>189.5664118860167</v>
       </c>
       <c r="O69" t="n">
-        <v>183.52</v>
+        <v>189.5664118860167</v>
       </c>
     </row>
     <row r="70">
@@ -2763,19 +2765,19 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>183.52</v>
+        <v>189.5664118860167</v>
       </c>
       <c r="O70" t="n">
-        <v>223.52</v>
+        <v>201.52</v>
       </c>
     </row>
     <row r="71">
@@ -2796,19 +2798,19 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>185.8183746150233</v>
+        <v>191.842172532319</v>
       </c>
       <c r="O71" t="n">
-        <v>185.8183746150233</v>
+        <v>241.9988814860635</v>
       </c>
     </row>
     <row r="72">
@@ -2834,14 +2836,14 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>185.8183746150233</v>
+        <v>195.5664118860167</v>
       </c>
       <c r="O72" t="n">
-        <v>211.5877474403654</v>
+        <v>206.1364118860167</v>
       </c>
     </row>
     <row r="73">
@@ -2862,19 +2864,19 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>191.8183746150233</v>
+        <v>198.071646018334</v>
       </c>
       <c r="O73" t="n">
-        <v>209.2920894528679</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="74">
@@ -2907,7 +2909,7 @@
         <v>201.52</v>
       </c>
       <c r="O74" t="n">
-        <v>205.5877474403654</v>
+        <v>205.8554036086493</v>
       </c>
     </row>
     <row r="75">
@@ -2937,10 +2939,10 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>205.5877474403654</v>
+        <v>205.8554036086493</v>
       </c>
       <c r="O75" t="n">
-        <v>205.5877474403654</v>
+        <v>205.8554036086493</v>
       </c>
     </row>
     <row r="76">
@@ -2970,7 +2972,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>205.5877474403654</v>
+        <v>205.8554036086493</v>
       </c>
       <c r="O76" t="n">
         <v>241.52</v>
@@ -2994,7 +2996,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -3003,10 +3005,10 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>209.2920894528679</v>
+        <v>206.1364118860167</v>
       </c>
       <c r="O77" t="n">
-        <v>209.2920894528679</v>
+        <v>206.1364118860167</v>
       </c>
     </row>
     <row r="78">
@@ -3027,7 +3029,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -3036,10 +3038,10 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>209.2920894528679</v>
+        <v>206.1364118860167</v>
       </c>
       <c r="O78" t="n">
-        <v>228.1577474403654</v>
+        <v>211.8554036086493</v>
       </c>
     </row>
     <row r="79">
@@ -3069,10 +3071,10 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>211.5877474403654</v>
+        <v>211.8554036086493</v>
       </c>
       <c r="O79" t="n">
-        <v>222.1577474403654</v>
+        <v>222.4254036086493</v>
       </c>
     </row>
     <row r="80">
@@ -3093,19 +3095,19 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>215.2920894528679</v>
+        <v>222.4254036086493</v>
       </c>
       <c r="O80" t="n">
-        <v>225.4708274369736</v>
+        <v>222.4254036086493</v>
       </c>
     </row>
     <row r="81">
@@ -3131,14 +3133,14 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>222.1577474403654</v>
+        <v>222.4254036086493</v>
       </c>
       <c r="O81" t="n">
-        <v>222.1577474403654</v>
+        <v>274.943165931124</v>
       </c>
     </row>
     <row r="82">
@@ -3159,19 +3161,19 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>222.1577474403654</v>
+        <v>223.52</v>
       </c>
       <c r="O82" t="n">
-        <v>261.3397337220845</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="83">
@@ -3197,7 +3199,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -3230,14 +3232,14 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N84" t="n">
         <v>223.52</v>
       </c>
       <c r="O84" t="n">
-        <v>223.52</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="85">
@@ -3258,19 +3260,19 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N85" t="n">
         <v>223.52</v>
       </c>
       <c r="O85" t="n">
-        <v>263.52</v>
+        <v>317.7107281211085</v>
       </c>
     </row>
     <row r="86">
@@ -3291,19 +3293,19 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>225.4708274369736</v>
+        <v>241.52</v>
       </c>
       <c r="O86" t="n">
-        <v>225.4708274369736</v>
+        <v>268.943165931124</v>
       </c>
     </row>
     <row r="87">
@@ -3324,19 +3326,19 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>225.4708274369736</v>
+        <v>241.9988814860635</v>
       </c>
       <c r="O87" t="n">
-        <v>243.0717334910059</v>
+        <v>241.9988814860635</v>
       </c>
     </row>
     <row r="88">
@@ -3362,14 +3364,14 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>228.1577474403654</v>
+        <v>241.9988814860635</v>
       </c>
       <c r="O88" t="n">
-        <v>237.0717334910059</v>
+        <v>241.9988814860635</v>
       </c>
     </row>
     <row r="89">
@@ -3395,14 +3397,14 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>237.0717334910059</v>
+        <v>241.9988814860635</v>
       </c>
       <c r="O89" t="n">
-        <v>237.0717334910059</v>
+        <v>294.7466757751408</v>
       </c>
     </row>
     <row r="90">
@@ -3423,19 +3425,19 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>237.0717334910059</v>
+        <v>247.9988814860635</v>
       </c>
       <c r="O90" t="n">
-        <v>277.9097337220845</v>
+        <v>258.1776194701692</v>
       </c>
     </row>
     <row r="91">
@@ -3456,19 +3458,19 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>241.52</v>
+        <v>258.1776194701692</v>
       </c>
       <c r="O91" t="n">
-        <v>255.3397337220845</v>
+        <v>258.1776194701692</v>
       </c>
     </row>
     <row r="92">
@@ -3494,14 +3496,14 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>243.0717334910059</v>
+        <v>258.1776194701692</v>
       </c>
       <c r="O92" t="n">
-        <v>254.5126266902074</v>
+        <v>300.7466757751408</v>
       </c>
     </row>
     <row r="93">
@@ -3522,7 +3524,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -3531,10 +3533,10 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>254.5126266902074</v>
+        <v>263.52</v>
       </c>
       <c r="O93" t="n">
-        <v>254.5126266902074</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="94">
@@ -3555,7 +3557,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -3564,10 +3566,10 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>254.5126266902074</v>
+        <v>263.52</v>
       </c>
       <c r="O94" t="n">
-        <v>287.5450833550947</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="95">
@@ -3588,19 +3590,19 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>255.3397337220845</v>
+        <v>263.52</v>
       </c>
       <c r="O95" t="n">
-        <v>255.3397337220845</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="96">
@@ -3626,14 +3628,14 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>255.3397337220845</v>
+        <v>268.943165931124</v>
       </c>
       <c r="O96" t="n">
-        <v>281.52</v>
+        <v>268.943165931124</v>
       </c>
     </row>
     <row r="97">
@@ -3654,19 +3656,19 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>261.3397337220845</v>
+        <v>268.943165931124</v>
       </c>
       <c r="O97" t="n">
-        <v>271.9097337220845</v>
+        <v>281.52</v>
       </c>
     </row>
     <row r="98">
@@ -3687,19 +3689,19 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>263.52</v>
+        <v>274.943165931124</v>
       </c>
       <c r="O98" t="n">
-        <v>263.52</v>
+        <v>285.513165931124</v>
       </c>
     </row>
     <row r="99">
@@ -3720,19 +3722,19 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>263.52</v>
+        <v>281.52</v>
       </c>
       <c r="O99" t="n">
-        <v>263.52</v>
+        <v>289.9490082165821</v>
       </c>
     </row>
     <row r="100">
@@ -3753,19 +3755,19 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>263.52</v>
+        <v>285.513165931124</v>
       </c>
       <c r="O100" t="n">
-        <v>303.52</v>
+        <v>285.513165931124</v>
       </c>
     </row>
     <row r="101">
@@ -3791,14 +3793,14 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>271.9097337220845</v>
+        <v>285.513165931124</v>
       </c>
       <c r="O101" t="n">
-        <v>271.9097337220845</v>
+        <v>295.9490082165821</v>
       </c>
     </row>
     <row r="102">
@@ -3819,19 +3821,19 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>271.9097337220845</v>
+        <v>289.9490082165821</v>
       </c>
       <c r="O102" t="n">
-        <v>315.0099305834493</v>
+        <v>289.9490082165821</v>
       </c>
     </row>
     <row r="103">
@@ -3852,19 +3854,19 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>277.9097337220845</v>
+        <v>289.9490082165821</v>
       </c>
       <c r="O103" t="n">
-        <v>281.5450833550947</v>
+        <v>321.52</v>
       </c>
     </row>
     <row r="104">
@@ -3885,19 +3887,19 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>281.52</v>
+        <v>294.7466757751408</v>
       </c>
       <c r="O104" t="n">
-        <v>309.0099305834493</v>
+        <v>294.7466757751408</v>
       </c>
     </row>
     <row r="105">
@@ -3923,14 +3925,14 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>281.5450833550947</v>
+        <v>294.7466757751408</v>
       </c>
       <c r="O105" t="n">
-        <v>281.5450833550947</v>
+        <v>294.7466757751408</v>
       </c>
     </row>
     <row r="106">
@@ -3956,14 +3958,14 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>281.5450833550947</v>
+        <v>294.7466757751408</v>
       </c>
       <c r="O106" t="n">
-        <v>324.5099305834493</v>
+        <v>302.8504357521094</v>
       </c>
     </row>
     <row r="107">
@@ -3984,7 +3986,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -3993,10 +3995,10 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>287.5450833550947</v>
+        <v>295.9490082165821</v>
       </c>
       <c r="O107" t="n">
-        <v>298.6126413452447</v>
+        <v>306.5190082165821</v>
       </c>
     </row>
     <row r="108">
@@ -4022,14 +4024,14 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>298.6126413452447</v>
+        <v>300.7466757751408</v>
       </c>
       <c r="O108" t="n">
-        <v>298.6126413452447</v>
+        <v>311.7107281211085</v>
       </c>
     </row>
     <row r="109">
@@ -4050,19 +4052,19 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>298.6126413452447</v>
+        <v>302.8504357521094</v>
       </c>
       <c r="O109" t="n">
-        <v>337.2793395159588</v>
+        <v>302.8504357521094</v>
       </c>
     </row>
     <row r="110">
@@ -4083,19 +4085,19 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>303.52</v>
+        <v>302.8504357521094</v>
       </c>
       <c r="O110" t="n">
-        <v>303.52</v>
+        <v>302.8504357521094</v>
       </c>
     </row>
     <row r="111">
@@ -4116,18 +4118,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>303.52</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
+        <v>302.8504357521094</v>
+      </c>
+      <c r="O111" t="n">
+        <v>308.7236878840964</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4147,7 +4151,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -4156,10 +4160,10 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>309.0099305834493</v>
+        <v>303.52</v>
       </c>
       <c r="O112" t="n">
-        <v>309.0099305834493</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="113">
@@ -4180,7 +4184,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -4189,10 +4193,10 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>309.0099305834493</v>
+        <v>303.52</v>
       </c>
       <c r="O113" t="n">
-        <v>321.52</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="114">
@@ -4213,7 +4217,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -4222,11 +4226,9 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>315.0099305834493</v>
-      </c>
-      <c r="O114" t="n">
-        <v>318.5099305834493</v>
-      </c>
+        <v>303.52</v>
+      </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4255,10 +4257,10 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>318.5099305834493</v>
+        <v>306.5190082165821</v>
       </c>
       <c r="O115" t="n">
-        <v>318.5099305834493</v>
+        <v>306.5190082165821</v>
       </c>
     </row>
     <row r="116">
@@ -4288,11 +4290,9 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>318.5099305834493</v>
-      </c>
-      <c r="O116" t="n">
-        <v>339.5452930397972</v>
-      </c>
+        <v>306.5190082165821</v>
+      </c>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4312,19 +4312,19 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>321.52</v>
+        <v>308.7236878840964</v>
       </c>
       <c r="O117" t="n">
-        <v>333.5452930397972</v>
+        <v>308.8504357521094</v>
       </c>
     </row>
     <row r="118">
@@ -4350,14 +4350,14 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>324.5099305834493</v>
+        <v>308.8504357521094</v>
       </c>
       <c r="O118" t="n">
-        <v>331.2793395159588</v>
+        <v>312.5190082165821</v>
       </c>
     </row>
     <row r="119">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -4387,10 +4387,10 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>331.2793395159588</v>
+        <v>311.7107281211085</v>
       </c>
       <c r="O119" t="n">
-        <v>331.2793395159588</v>
+        <v>311.7107281211085</v>
       </c>
     </row>
     <row r="120">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>331.2793395159588</v>
+        <v>311.7107281211085</v>
       </c>
       <c r="O120" t="n">
-        <v>356.1152930397972</v>
+        <v>311.7107281211085</v>
       </c>
     </row>
     <row r="121">
@@ -4444,19 +4444,19 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>333.5452930397972</v>
+        <v>311.7107281211085</v>
       </c>
       <c r="O121" t="n">
-        <v>333.5452930397972</v>
+        <v>323.15162132031</v>
       </c>
     </row>
     <row r="122">
@@ -4477,18 +4477,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>333.5452930397972</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
+        <v>312.5190082165821</v>
+      </c>
+      <c r="O122" t="n">
+        <v>326.703633281763</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4508,7 +4510,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -4517,10 +4519,10 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>337.2793395159588</v>
+        <v>317.7107281211085</v>
       </c>
       <c r="O123" t="n">
-        <v>345.5020616360824</v>
+        <v>328.2307281211085</v>
       </c>
     </row>
     <row r="124">
@@ -4541,7 +4543,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -4550,11 +4552,9 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>339.5452930397972</v>
-      </c>
-      <c r="O124" t="n">
-        <v>350.1152930397972</v>
-      </c>
+        <v>321.52</v>
+      </c>
+      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>345.5020616360824</v>
+        <v>323.15162132031</v>
       </c>
       <c r="O125" t="n">
-        <v>345.5020616360824</v>
+        <v>323.15162132031</v>
       </c>
     </row>
     <row r="126">
@@ -4616,10 +4616,10 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>345.5020616360824</v>
+        <v>323.15162132031</v>
       </c>
       <c r="O126" t="n">
-        <v>382.8271939320369</v>
+        <v>323.15162132031</v>
       </c>
     </row>
     <row r="127">
@@ -4640,19 +4640,19 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>350.1152930397972</v>
+        <v>323.15162132031</v>
       </c>
       <c r="O127" t="n">
-        <v>350.1152930397972</v>
+        <v>334.2191793104599</v>
       </c>
     </row>
     <row r="128">
@@ -4673,18 +4673,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>350.1152930397972</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
+        <v>326.703633281763</v>
+      </c>
+      <c r="O128" t="n">
+        <v>326.703633281763</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4709,15 +4711,13 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>356.1152930397972</v>
-      </c>
-      <c r="O129" t="n">
-        <v>376.8271939320369</v>
-      </c>
+        <v>326.703633281763</v>
+      </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -4746,10 +4746,10 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>376.8271939320369</v>
+        <v>328.2307281211085</v>
       </c>
       <c r="O130" t="n">
-        <v>376.8271939320369</v>
+        <v>328.2307281211085</v>
       </c>
     </row>
     <row r="131">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>376.8271939320369</v>
+        <v>328.2307281211085</v>
       </c>
       <c r="O131" t="inlineStr"/>
     </row>
@@ -4806,14 +4806,14 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>382.8271939320369</v>
+        <v>334.2191793104599</v>
       </c>
       <c r="O132" t="n">
-        <v>392.9772823495625</v>
+        <v>334.2191793104599</v>
       </c>
     </row>
     <row r="133">
@@ -4839,13 +4839,79 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>334.2191793104599</v>
+      </c>
+      <c r="O133" t="n">
+        <v>334.2191793104599</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>334.2191793104599</v>
+      </c>
+      <c r="O134" t="n">
+        <v>342.4419014305835</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
           <t>Blocking</t>
         </is>
       </c>
-      <c r="N133" t="n">
-        <v>392.9772823495625</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>342.4419014305835</v>
+      </c>
+      <c r="O135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dfi.xlsx
+++ b/dfi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O135"/>
+  <dimension ref="A1:O187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,9 +600,7 @@
       <c r="N4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" t="n">
-        <v>81.52</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -634,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>121.52</v>
+        <v>81.52</v>
       </c>
     </row>
     <row r="6">
@@ -667,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>132.2958780197393</v>
+        <v>95.61294423578325</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>148.8658780197393</v>
+        <v>112.1829442357833</v>
       </c>
     </row>
     <row r="8">
@@ -733,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>171.9514888099668</v>
+        <v>144.3993582605025</v>
       </c>
     </row>
     <row r="9">
@@ -1447,7 +1445,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -1459,7 +1457,7 @@
         <v>81.52</v>
       </c>
       <c r="O30" t="n">
-        <v>162.52</v>
+        <v>89.61294423578325</v>
       </c>
     </row>
     <row r="31">
@@ -1480,7 +1478,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -1489,10 +1487,10 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>103.52</v>
+        <v>89.61294423578325</v>
       </c>
       <c r="O31" t="n">
-        <v>103.52</v>
+        <v>89.61294423578325</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1511,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -1522,10 +1520,10 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>103.52</v>
+        <v>89.61294423578325</v>
       </c>
       <c r="O32" t="n">
-        <v>103.52</v>
+        <v>121.52</v>
       </c>
     </row>
     <row r="33">
@@ -1546,7 +1544,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -1555,10 +1553,10 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>103.52</v>
+        <v>95.61294423578325</v>
       </c>
       <c r="O33" t="n">
-        <v>143.52</v>
+        <v>106.1829442357833</v>
       </c>
     </row>
     <row r="34">
@@ -1579,12 +1577,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -1612,19 +1610,19 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N35" t="n">
         <v>103.52</v>
       </c>
       <c r="O35" t="n">
-        <v>114.04</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="36">
@@ -1645,16 +1643,16 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>114.04</v>
+        <v>103.52</v>
       </c>
       <c r="O36" t="n">
         <v>143.52</v>
@@ -1678,19 +1676,19 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>121.52</v>
+        <v>103.52</v>
       </c>
       <c r="O37" t="n">
-        <v>126.2958780197393</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="38">
@@ -1711,19 +1709,19 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>126.2958780197393</v>
+        <v>103.52</v>
       </c>
       <c r="O38" t="n">
-        <v>126.2958780197393</v>
+        <v>114.04</v>
       </c>
     </row>
     <row r="39">
@@ -1744,19 +1742,19 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>126.2958780197393</v>
+        <v>106.1829442357833</v>
       </c>
       <c r="O39" t="n">
-        <v>161.52</v>
+        <v>106.1829442357833</v>
       </c>
     </row>
     <row r="40">
@@ -1782,14 +1780,14 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>132.2958780197393</v>
+        <v>106.1829442357833</v>
       </c>
       <c r="O40" t="n">
-        <v>142.8658780197393</v>
+        <v>148.358946411707</v>
       </c>
     </row>
     <row r="41">
@@ -1810,19 +1808,19 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>142.8658780197393</v>
+        <v>112.1829442357833</v>
       </c>
       <c r="O41" t="n">
-        <v>142.8658780197393</v>
+        <v>138.3993582605025</v>
       </c>
     </row>
     <row r="42">
@@ -1843,19 +1841,19 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>142.8658780197393</v>
+        <v>114.04</v>
       </c>
       <c r="O42" t="n">
-        <v>175.272172532319</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="43">
@@ -1876,19 +1874,19 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>143.52</v>
+        <v>121.52</v>
       </c>
       <c r="O43" t="n">
-        <v>143.52</v>
+        <v>142.358946411707</v>
       </c>
     </row>
     <row r="44">
@@ -1909,19 +1907,19 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>143.52</v>
+        <v>138.3993582605025</v>
       </c>
       <c r="O44" t="n">
-        <v>143.52</v>
+        <v>138.3993582605025</v>
       </c>
     </row>
     <row r="45">
@@ -1942,19 +1940,19 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>143.52</v>
+        <v>138.3993582605025</v>
       </c>
       <c r="O45" t="n">
-        <v>183.52</v>
+        <v>164.928946411707</v>
       </c>
     </row>
     <row r="46">
@@ -1975,19 +1973,19 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>143.52</v>
+        <v>142.358946411707</v>
       </c>
       <c r="O46" t="n">
-        <v>143.52</v>
+        <v>142.358946411707</v>
       </c>
     </row>
     <row r="47">
@@ -2008,19 +2006,19 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>143.52</v>
+        <v>142.358946411707</v>
       </c>
       <c r="O47" t="n">
-        <v>154.04</v>
+        <v>161.52</v>
       </c>
     </row>
     <row r="48">
@@ -2041,19 +2039,19 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>148.8658780197393</v>
+        <v>143.52</v>
       </c>
       <c r="O48" t="n">
-        <v>165.9514888099668</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="49">
@@ -2074,19 +2072,19 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>154.04</v>
+        <v>143.52</v>
       </c>
       <c r="O49" t="n">
-        <v>183.52</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="50">
@@ -2107,7 +2105,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -2116,10 +2114,10 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>161.52</v>
+        <v>143.52</v>
       </c>
       <c r="O50" t="n">
-        <v>169.272172532319</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="51">
@@ -2140,19 +2138,19 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>162.52</v>
+        <v>143.52</v>
       </c>
       <c r="O51" t="n">
-        <v>162.52</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="52">
@@ -2173,18 +2171,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>162.52</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
+        <v>143.52</v>
+      </c>
+      <c r="O52" t="n">
+        <v>154.04</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2204,19 +2204,19 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>165.9514888099668</v>
+        <v>144.3993582605025</v>
       </c>
       <c r="O53" t="n">
-        <v>165.9514888099668</v>
+        <v>155.3634106064702</v>
       </c>
     </row>
     <row r="54">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>165.9514888099668</v>
+        <v>148.358946411707</v>
       </c>
       <c r="O54" t="n">
-        <v>191.842172532319</v>
+        <v>158.928946411707</v>
       </c>
     </row>
     <row r="55">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>169.272172532319</v>
+        <v>154.04</v>
       </c>
       <c r="O55" t="n">
-        <v>169.272172532319</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="56">
@@ -2303,19 +2303,19 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>169.272172532319</v>
+        <v>155.3634106064702</v>
       </c>
       <c r="O56" t="n">
-        <v>174.52</v>
+        <v>155.3634106064702</v>
       </c>
     </row>
     <row r="57">
@@ -2341,14 +2341,14 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>171.9514888099668</v>
+        <v>155.3634106064702</v>
       </c>
       <c r="O57" t="n">
-        <v>181.551646018334</v>
+        <v>178.3504060776352</v>
       </c>
     </row>
     <row r="58">
@@ -2369,19 +2369,19 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>174.52</v>
+        <v>158.928946411707</v>
       </c>
       <c r="O58" t="n">
-        <v>189.5664118860167</v>
+        <v>158.928946411707</v>
       </c>
     </row>
     <row r="59">
@@ -2407,14 +2407,14 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>175.272172532319</v>
+        <v>158.928946411707</v>
       </c>
       <c r="O59" t="n">
-        <v>185.842172532319</v>
+        <v>171.7829212812041</v>
       </c>
     </row>
     <row r="60">
@@ -2435,19 +2435,19 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>181.551646018334</v>
+        <v>161.52</v>
       </c>
       <c r="O60" t="n">
-        <v>181.551646018334</v>
+        <v>165.7829212812041</v>
       </c>
     </row>
     <row r="61">
@@ -2468,19 +2468,19 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>181.551646018334</v>
+        <v>164.928946411707</v>
       </c>
       <c r="O61" t="n">
-        <v>247.9988814860635</v>
+        <v>172.3504060776352</v>
       </c>
     </row>
     <row r="62">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>183.52</v>
+        <v>165.7829212812041</v>
       </c>
       <c r="O62" t="n">
-        <v>183.52</v>
+        <v>165.7829212812041</v>
       </c>
     </row>
     <row r="63">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>183.52</v>
+        <v>165.7829212812041</v>
       </c>
       <c r="O63" t="n">
-        <v>183.52</v>
+        <v>201.52</v>
       </c>
     </row>
     <row r="64">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>183.52</v>
+        <v>171.7829212812041</v>
       </c>
       <c r="O64" t="n">
-        <v>223.52</v>
+        <v>182.3529212812041</v>
       </c>
     </row>
     <row r="65">
@@ -2600,19 +2600,19 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>183.52</v>
+        <v>172.3504060776352</v>
       </c>
       <c r="O65" t="n">
-        <v>187.551646018334</v>
+        <v>172.3504060776352</v>
       </c>
     </row>
     <row r="66">
@@ -2633,19 +2633,19 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>185.842172532319</v>
+        <v>172.3504060776352</v>
       </c>
       <c r="O66" t="n">
-        <v>185.842172532319</v>
+        <v>188.3529212812041</v>
       </c>
     </row>
     <row r="67">
@@ -2666,19 +2666,19 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>185.842172532319</v>
+        <v>178.3504060776352</v>
       </c>
       <c r="O67" t="n">
-        <v>195.5664118860167</v>
+        <v>187.9505632860024</v>
       </c>
     </row>
     <row r="68">
@@ -2699,19 +2699,19 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>187.551646018334</v>
+        <v>182.3529212812041</v>
       </c>
       <c r="O68" t="n">
-        <v>198.071646018334</v>
+        <v>182.3529212812041</v>
       </c>
     </row>
     <row r="69">
@@ -2732,19 +2732,19 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>189.5664118860167</v>
+        <v>182.3529212812041</v>
       </c>
       <c r="O69" t="n">
-        <v>189.5664118860167</v>
+        <v>223.6288469846695</v>
       </c>
     </row>
     <row r="70">
@@ -2765,19 +2765,19 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>189.5664118860167</v>
+        <v>183.52</v>
       </c>
       <c r="O70" t="n">
-        <v>201.52</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="71">
@@ -2798,19 +2798,19 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>191.842172532319</v>
+        <v>183.52</v>
       </c>
       <c r="O71" t="n">
-        <v>241.9988814860635</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="72">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -2840,10 +2840,10 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>195.5664118860167</v>
+        <v>183.52</v>
       </c>
       <c r="O72" t="n">
-        <v>206.1364118860167</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="73">
@@ -2869,14 +2869,14 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>198.071646018334</v>
+        <v>183.52</v>
       </c>
       <c r="O73" t="n">
-        <v>223.52</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="74">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>201.52</v>
+        <v>183.52</v>
       </c>
       <c r="O74" t="n">
-        <v>205.8554036086493</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="75">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -2939,10 +2939,10 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>205.8554036086493</v>
+        <v>187.9505632860024</v>
       </c>
       <c r="O75" t="n">
-        <v>205.8554036086493</v>
+        <v>187.9505632860024</v>
       </c>
     </row>
     <row r="76">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>205.8554036086493</v>
+        <v>187.9505632860024</v>
       </c>
       <c r="O76" t="n">
-        <v>241.52</v>
+        <v>208.5751736593068</v>
       </c>
     </row>
     <row r="77">
@@ -2996,19 +2996,19 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>206.1364118860167</v>
+        <v>188.3529212812041</v>
       </c>
       <c r="O77" t="n">
-        <v>206.1364118860167</v>
+        <v>202.5751736593068</v>
       </c>
     </row>
     <row r="78">
@@ -3029,19 +3029,19 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>206.1364118860167</v>
+        <v>194.04</v>
       </c>
       <c r="O78" t="n">
-        <v>211.8554036086493</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="79">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -3071,10 +3071,10 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>211.8554036086493</v>
+        <v>201.52</v>
       </c>
       <c r="O79" t="n">
-        <v>222.4254036086493</v>
+        <v>217.6288469846695</v>
       </c>
     </row>
     <row r="80">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>222.4254036086493</v>
+        <v>202.5751736593068</v>
       </c>
       <c r="O80" t="n">
-        <v>222.4254036086493</v>
+        <v>202.5751736593068</v>
       </c>
     </row>
     <row r="81">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>222.4254036086493</v>
+        <v>202.5751736593068</v>
       </c>
       <c r="O81" t="n">
-        <v>274.943165931124</v>
+        <v>240.1988469846695</v>
       </c>
     </row>
     <row r="82">
@@ -3161,19 +3161,19 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>223.52</v>
+        <v>208.5751736593068</v>
       </c>
       <c r="O82" t="n">
-        <v>223.52</v>
+        <v>218.7539116434126</v>
       </c>
     </row>
     <row r="83">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>223.52</v>
+        <v>217.6288469846695</v>
       </c>
       <c r="O83" t="n">
-        <v>223.52</v>
+        <v>217.6288469846695</v>
       </c>
     </row>
     <row r="84">
@@ -3227,19 +3227,19 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>223.52</v>
+        <v>217.6288469846695</v>
       </c>
       <c r="O84" t="n">
-        <v>263.52</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="85">
@@ -3260,19 +3260,19 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>223.52</v>
+        <v>218.7539116434126</v>
       </c>
       <c r="O85" t="n">
-        <v>317.7107281211085</v>
+        <v>218.7539116434126</v>
       </c>
     </row>
     <row r="86">
@@ -3293,19 +3293,19 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>241.52</v>
+        <v>218.7539116434126</v>
       </c>
       <c r="O86" t="n">
-        <v>268.943165931124</v>
+        <v>254.9575293667189</v>
       </c>
     </row>
     <row r="87">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>241.9988814860635</v>
+        <v>223.52</v>
       </c>
       <c r="O87" t="n">
-        <v>241.9988814860635</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="88">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>241.9988814860635</v>
+        <v>223.52</v>
       </c>
       <c r="O88" t="n">
-        <v>241.9988814860635</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="89">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>241.9988814860635</v>
+        <v>223.52</v>
       </c>
       <c r="O89" t="n">
-        <v>294.7466757751408</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="90">
@@ -3425,19 +3425,19 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>247.9988814860635</v>
+        <v>223.52</v>
       </c>
       <c r="O90" t="n">
-        <v>258.1776194701692</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="91">
@@ -3458,19 +3458,19 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>258.1776194701692</v>
+        <v>223.52</v>
       </c>
       <c r="O91" t="n">
-        <v>258.1776194701692</v>
+        <v>234.04</v>
       </c>
     </row>
     <row r="92">
@@ -3491,19 +3491,19 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>258.1776194701692</v>
+        <v>223.6288469846695</v>
       </c>
       <c r="O92" t="n">
-        <v>300.7466757751408</v>
+        <v>234.1988469846695</v>
       </c>
     </row>
     <row r="93">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>263.52</v>
+        <v>234.04</v>
       </c>
       <c r="O93" t="n">
         <v>263.52</v>
@@ -3557,19 +3557,19 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>263.52</v>
+        <v>234.1988469846695</v>
       </c>
       <c r="O94" t="n">
-        <v>263.52</v>
+        <v>234.1988469846695</v>
       </c>
     </row>
     <row r="95">
@@ -3590,19 +3590,19 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>263.52</v>
+        <v>234.1988469846695</v>
       </c>
       <c r="O95" t="n">
-        <v>303.52</v>
+        <v>252.7558654704403</v>
       </c>
     </row>
     <row r="96">
@@ -3623,19 +3623,19 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>268.943165931124</v>
+        <v>240.1988469846695</v>
       </c>
       <c r="O96" t="n">
-        <v>268.943165931124</v>
+        <v>248.9575293667189</v>
       </c>
     </row>
     <row r="97">
@@ -3661,14 +3661,14 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>268.943165931124</v>
+        <v>241.52</v>
       </c>
       <c r="O97" t="n">
-        <v>281.52</v>
+        <v>246.7558654704403</v>
       </c>
     </row>
     <row r="98">
@@ -3689,19 +3689,19 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>274.943165931124</v>
+        <v>246.7558654704403</v>
       </c>
       <c r="O98" t="n">
-        <v>285.513165931124</v>
+        <v>246.7558654704403</v>
       </c>
     </row>
     <row r="99">
@@ -3727,14 +3727,14 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N99" t="n">
+        <v>246.7558654704403</v>
+      </c>
+      <c r="O99" t="n">
         <v>281.52</v>
-      </c>
-      <c r="O99" t="n">
-        <v>289.9490082165821</v>
       </c>
     </row>
     <row r="100">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>285.513165931124</v>
+        <v>248.9575293667189</v>
       </c>
       <c r="O100" t="n">
-        <v>285.513165931124</v>
+        <v>248.9575293667189</v>
       </c>
     </row>
     <row r="101">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -3797,10 +3797,10 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>285.513165931124</v>
+        <v>248.9575293667189</v>
       </c>
       <c r="O101" t="n">
-        <v>295.9490082165821</v>
+        <v>269.3258654704403</v>
       </c>
     </row>
     <row r="102">
@@ -3821,19 +3821,19 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>289.9490082165821</v>
+        <v>252.7558654704403</v>
       </c>
       <c r="O102" t="n">
-        <v>289.9490082165821</v>
+        <v>263.3258654704403</v>
       </c>
     </row>
     <row r="103">
@@ -3854,19 +3854,19 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>289.9490082165821</v>
+        <v>254.9575293667189</v>
       </c>
       <c r="O103" t="n">
-        <v>321.52</v>
+        <v>266.3984225659204</v>
       </c>
     </row>
     <row r="104">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -3896,10 +3896,10 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>294.7466757751408</v>
+        <v>263.3258654704403</v>
       </c>
       <c r="O104" t="n">
-        <v>294.7466757751408</v>
+        <v>263.3258654704403</v>
       </c>
     </row>
     <row r="105">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -3929,10 +3929,10 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>294.7466757751408</v>
+        <v>263.3258654704403</v>
       </c>
       <c r="O105" t="n">
-        <v>294.7466757751408</v>
+        <v>293.2095723619149</v>
       </c>
     </row>
     <row r="106">
@@ -3953,19 +3953,19 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>294.7466757751408</v>
+        <v>263.52</v>
       </c>
       <c r="O106" t="n">
-        <v>302.8504357521094</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="107">
@@ -3986,19 +3986,19 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>295.9490082165821</v>
+        <v>263.52</v>
       </c>
       <c r="O107" t="n">
-        <v>306.5190082165821</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="108">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -4028,10 +4028,10 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>300.7466757751408</v>
+        <v>263.52</v>
       </c>
       <c r="O108" t="n">
-        <v>311.7107281211085</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="109">
@@ -4052,20 +4052,18 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>302.8504357521094</v>
-      </c>
-      <c r="O109" t="n">
-        <v>302.8504357521094</v>
-      </c>
+        <v>263.52</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4085,19 +4083,19 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>302.8504357521094</v>
+        <v>266.3984225659204</v>
       </c>
       <c r="O110" t="n">
-        <v>302.8504357521094</v>
+        <v>266.3984225659204</v>
       </c>
     </row>
     <row r="111">
@@ -4118,19 +4116,19 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>302.8504357521094</v>
+        <v>266.3984225659204</v>
       </c>
       <c r="O111" t="n">
-        <v>308.7236878840964</v>
+        <v>285.2837510325635</v>
       </c>
     </row>
     <row r="112">
@@ -4151,19 +4149,19 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>303.52</v>
+        <v>269.3258654704403</v>
       </c>
       <c r="O112" t="n">
-        <v>303.52</v>
+        <v>279.2837510325635</v>
       </c>
     </row>
     <row r="113">
@@ -4184,19 +4182,19 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>303.52</v>
+        <v>279.2837510325635</v>
       </c>
       <c r="O113" t="n">
-        <v>303.52</v>
+        <v>279.2837510325635</v>
       </c>
     </row>
     <row r="114">
@@ -4217,18 +4215,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>303.52</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
+        <v>279.2837510325635</v>
+      </c>
+      <c r="O114" t="n">
+        <v>309.7795723619149</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4248,19 +4248,19 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>306.5190082165821</v>
+        <v>281.52</v>
       </c>
       <c r="O115" t="n">
-        <v>306.5190082165821</v>
+        <v>287.2095723619149</v>
       </c>
     </row>
     <row r="116">
@@ -4281,18 +4281,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>306.5190082165821</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
+        <v>285.2837510325635</v>
+      </c>
+      <c r="O116" t="n">
+        <v>296.3513090227135</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4312,7 +4314,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -4321,10 +4323,10 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>308.7236878840964</v>
+        <v>287.2095723619149</v>
       </c>
       <c r="O117" t="n">
-        <v>308.8504357521094</v>
+        <v>287.2095723619149</v>
       </c>
     </row>
     <row r="118">
@@ -4345,7 +4347,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -4354,10 +4356,10 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>308.8504357521094</v>
+        <v>287.2095723619149</v>
       </c>
       <c r="O118" t="n">
-        <v>312.5190082165821</v>
+        <v>321.52</v>
       </c>
     </row>
     <row r="119">
@@ -4378,19 +4380,19 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>311.7107281211085</v>
+        <v>293.2095723619149</v>
       </c>
       <c r="O119" t="n">
-        <v>311.7107281211085</v>
+        <v>303.7795723619149</v>
       </c>
     </row>
     <row r="120">
@@ -4416,14 +4418,14 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>311.7107281211085</v>
+        <v>296.3513090227135</v>
       </c>
       <c r="O120" t="n">
-        <v>311.7107281211085</v>
+        <v>296.3513090227135</v>
       </c>
     </row>
     <row r="121">
@@ -4449,14 +4451,14 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>311.7107281211085</v>
+        <v>296.3513090227135</v>
       </c>
       <c r="O121" t="n">
-        <v>323.15162132031</v>
+        <v>329.0245762286317</v>
       </c>
     </row>
     <row r="122">
@@ -4477,19 +4479,19 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>312.5190082165821</v>
+        <v>303.52</v>
       </c>
       <c r="O122" t="n">
-        <v>326.703633281763</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="123">
@@ -4510,19 +4512,19 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>317.7107281211085</v>
+        <v>303.52</v>
       </c>
       <c r="O123" t="n">
-        <v>328.2307281211085</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="124">
@@ -4543,7 +4545,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -4552,9 +4554,11 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>321.52</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
+        <v>303.52</v>
+      </c>
+      <c r="O124" t="n">
+        <v>343.52</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4574,7 +4578,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -4583,10 +4587,10 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>323.15162132031</v>
+        <v>303.7795723619149</v>
       </c>
       <c r="O125" t="n">
-        <v>323.15162132031</v>
+        <v>303.7795723619149</v>
       </c>
     </row>
     <row r="126">
@@ -4607,7 +4611,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -4616,10 +4620,10 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>323.15162132031</v>
+        <v>303.7795723619149</v>
       </c>
       <c r="O126" t="n">
-        <v>323.15162132031</v>
+        <v>334.1447107569983</v>
       </c>
     </row>
     <row r="127">
@@ -4640,7 +4644,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -4649,10 +4653,10 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>323.15162132031</v>
+        <v>309.7795723619149</v>
       </c>
       <c r="O127" t="n">
-        <v>334.2191793104599</v>
+        <v>323.0245762286317</v>
       </c>
     </row>
     <row r="128">
@@ -4673,19 +4677,19 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>326.703633281763</v>
+        <v>321.52</v>
       </c>
       <c r="O128" t="n">
-        <v>326.703633281763</v>
+        <v>328.1447107569983</v>
       </c>
     </row>
     <row r="129">
@@ -4711,13 +4715,15 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>326.703633281763</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
+        <v>323.0245762286317</v>
+      </c>
+      <c r="O129" t="n">
+        <v>323.0245762286317</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4737,19 +4743,19 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>328.2307281211085</v>
+        <v>323.0245762286317</v>
       </c>
       <c r="O130" t="n">
-        <v>328.2307281211085</v>
+        <v>350.7147107569983</v>
       </c>
     </row>
     <row r="131">
@@ -4770,18 +4776,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>328.2307281211085</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
+        <v>328.1447107569983</v>
+      </c>
+      <c r="O131" t="n">
+        <v>328.1447107569983</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4801,19 +4809,19 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>334.2191793104599</v>
+        <v>328.1447107569983</v>
       </c>
       <c r="O132" t="n">
-        <v>334.2191793104599</v>
+        <v>361.52</v>
       </c>
     </row>
     <row r="133">
@@ -4839,14 +4847,14 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>334.2191793104599</v>
+        <v>329.0245762286317</v>
       </c>
       <c r="O133" t="n">
-        <v>334.2191793104599</v>
+        <v>337.2472983487553</v>
       </c>
     </row>
     <row r="134">
@@ -4867,7 +4875,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -4876,10 +4884,10 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>334.2191793104599</v>
+        <v>334.1447107569983</v>
       </c>
       <c r="O134" t="n">
-        <v>342.4419014305835</v>
+        <v>344.7147107569983</v>
       </c>
     </row>
     <row r="135">
@@ -4909,9 +4917,1717 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>342.4419014305835</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
+        <v>337.2472983487553</v>
+      </c>
+      <c r="O135" t="n">
+        <v>337.2472983487553</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>337.2472983487553</v>
+      </c>
+      <c r="O136" t="n">
+        <v>363.4552211046753</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="O137" t="n">
+        <v>343.52</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="O138" t="n">
+        <v>343.52</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="O139" t="n">
+        <v>383.52</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>344.7147107569983</v>
+      </c>
+      <c r="O140" t="n">
+        <v>344.7147107569983</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>344.7147107569983</v>
+      </c>
+      <c r="O141" t="n">
+        <v>377.3357518708947</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>350.7147107569983</v>
+      </c>
+      <c r="O142" t="n">
+        <v>357.4552211046753</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>357.4552211046753</v>
+      </c>
+      <c r="O143" t="n">
+        <v>357.4552211046753</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>357.4552211046753</v>
+      </c>
+      <c r="O144" t="n">
+        <v>393.9057518708947</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>361.52</v>
+      </c>
+      <c r="O145" t="n">
+        <v>371.3357518708947</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>363.4552211046753</v>
+      </c>
+      <c r="O146" t="n">
+        <v>373.6053095222009</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>371.3357518708947</v>
+      </c>
+      <c r="O147" t="n">
+        <v>371.3357518708947</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>371.3357518708947</v>
+      </c>
+      <c r="O148" t="n">
+        <v>401.52</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>373.6053095222009</v>
+      </c>
+      <c r="O149" t="n">
+        <v>373.6053095222009</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>373.6053095222009</v>
+      </c>
+      <c r="O150" t="n">
+        <v>419.2839115140445</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>377.3357518708947</v>
+      </c>
+      <c r="O151" t="n">
+        <v>387.9057518708947</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="O152" t="n">
+        <v>383.52</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="O153" t="n">
+        <v>383.52</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="O154" t="n">
+        <v>423.52</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>387.9057518708947</v>
+      </c>
+      <c r="O155" t="n">
+        <v>387.9057518708947</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>387.9057518708947</v>
+      </c>
+      <c r="O156" t="n">
+        <v>412.8291410097431</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>393.9057518708947</v>
+      </c>
+      <c r="O157" t="n">
+        <v>413.2839115140445</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>401.52</v>
+      </c>
+      <c r="O158" t="n">
+        <v>406.8291410097431</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>406.8291410097431</v>
+      </c>
+      <c r="O159" t="n">
+        <v>406.8291410097431</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>406.8291410097431</v>
+      </c>
+      <c r="O160" t="n">
+        <v>441.52</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>412.8291410097431</v>
+      </c>
+      <c r="O161" t="n">
+        <v>423.3991410097431</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>413.2839115140445</v>
+      </c>
+      <c r="O162" t="n">
+        <v>413.2839115140445</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>413.2839115140445</v>
+      </c>
+      <c r="O163" t="n">
+        <v>429.3991410097431</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>419.2839115140445</v>
+      </c>
+      <c r="O164" t="n">
+        <v>428.3325543057468</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>423.3991410097431</v>
+      </c>
+      <c r="O165" t="n">
+        <v>423.3991410097431</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>423.3991410097431</v>
+      </c>
+      <c r="O166" t="n">
+        <v>451.4922122802055</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>423.52</v>
+      </c>
+      <c r="O167" t="n">
+        <v>423.52</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>423.52</v>
+      </c>
+      <c r="O168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>428.3325543057468</v>
+      </c>
+      <c r="O169" t="n">
+        <v>428.3325543057468</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>428.3325543057468</v>
+      </c>
+      <c r="O170" t="n">
+        <v>462.2705728935611</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>429.3991410097431</v>
+      </c>
+      <c r="O171" t="n">
+        <v>456.2705728935611</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>441.52</v>
+      </c>
+      <c r="O172" t="n">
+        <v>445.4922122802055</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>445.4922122802055</v>
+      </c>
+      <c r="O173" t="n">
+        <v>445.4922122802055</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>445.4922122802055</v>
+      </c>
+      <c r="O174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>451.4922122802055</v>
+      </c>
+      <c r="O175" t="n">
+        <v>462.0622122802055</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>456.2705728935611</v>
+      </c>
+      <c r="O176" t="n">
+        <v>456.2705728935611</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>456.2705728935611</v>
+      </c>
+      <c r="O177" t="n">
+        <v>468.0622122802055</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>462.0622122802055</v>
+      </c>
+      <c r="O178" t="n">
+        <v>462.0622122802055</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>462.0622122802055</v>
+      </c>
+      <c r="O179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>462.2705728935611</v>
+      </c>
+      <c r="O180" t="n">
+        <v>471.3673540417676</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>468.0622122802055</v>
+      </c>
+      <c r="O181" t="n">
+        <v>477.6093453689278</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>471.3673540417676</v>
+      </c>
+      <c r="O182" t="n">
+        <v>471.3673540417676</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>471.3673540417676</v>
+      </c>
+      <c r="O183" t="n">
+        <v>483.6093453689278</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>477.6093453689278</v>
+      </c>
+      <c r="O184" t="n">
+        <v>477.6093453689278</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>477.6093453689278</v>
+      </c>
+      <c r="O185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>483.6093453689278</v>
+      </c>
+      <c r="O186" t="n">
+        <v>493.2199438708662</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>493.2199438708662</v>
+      </c>
+      <c r="O187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dfi.xlsx
+++ b/dfi.xlsx
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>95.61294423578325</v>
+        <v>92.07859402434674</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>112.1829442357833</v>
+        <v>101.5785940243467</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>144.3993582605025</v>
+        <v>115.1284518538303</v>
       </c>
     </row>
     <row r="9">
@@ -1457,7 +1457,7 @@
         <v>81.52</v>
       </c>
       <c r="O30" t="n">
-        <v>89.61294423578325</v>
+        <v>86.07859402434674</v>
       </c>
     </row>
     <row r="31">
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>89.61294423578325</v>
+        <v>86.07859402434674</v>
       </c>
       <c r="O31" t="n">
-        <v>89.61294423578325</v>
+        <v>86.07859402434674</v>
       </c>
     </row>
     <row r="32">
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>89.61294423578325</v>
+        <v>86.07859402434674</v>
       </c>
       <c r="O32" t="n">
         <v>121.52</v>
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>95.61294423578325</v>
+        <v>92.07859402434674</v>
       </c>
       <c r="O33" t="n">
-        <v>106.1829442357833</v>
+        <v>95.57859402434674</v>
       </c>
     </row>
     <row r="34">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>103.52</v>
+        <v>95.57859402434674</v>
       </c>
       <c r="O34" t="n">
-        <v>103.52</v>
+        <v>95.57859402434674</v>
       </c>
     </row>
     <row r="35">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -1619,10 +1619,10 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>103.52</v>
+        <v>95.57859402434674</v>
       </c>
       <c r="O35" t="n">
-        <v>103.52</v>
+        <v>137.5141178234333</v>
       </c>
     </row>
     <row r="36">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>103.52</v>
+        <v>101.5785940243467</v>
       </c>
       <c r="O36" t="n">
-        <v>143.52</v>
+        <v>109.1284518538303</v>
       </c>
     </row>
     <row r="37">
@@ -1676,12 +1676,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -1709,19 +1709,19 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N38" t="n">
         <v>103.52</v>
       </c>
       <c r="O38" t="n">
-        <v>114.04</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="39">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>106.1829442357833</v>
+        <v>103.52</v>
       </c>
       <c r="O39" t="n">
-        <v>106.1829442357833</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="40">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>106.1829442357833</v>
+        <v>103.52</v>
       </c>
       <c r="O40" t="n">
-        <v>148.358946411707</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="41">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>112.1829442357833</v>
+        <v>103.52</v>
       </c>
       <c r="O41" t="n">
-        <v>138.3993582605025</v>
+        <v>114.04</v>
       </c>
     </row>
     <row r="42">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -1850,10 +1850,10 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>114.04</v>
+        <v>109.1284518538303</v>
       </c>
       <c r="O42" t="n">
-        <v>143.52</v>
+        <v>109.1284518538303</v>
       </c>
     </row>
     <row r="43">
@@ -1874,19 +1874,19 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>121.52</v>
+        <v>109.1284518538303</v>
       </c>
       <c r="O43" t="n">
-        <v>142.358946411707</v>
+        <v>154.0841178234333</v>
       </c>
     </row>
     <row r="44">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -1916,10 +1916,10 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>138.3993582605025</v>
+        <v>114.04</v>
       </c>
       <c r="O44" t="n">
-        <v>138.3993582605025</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="45">
@@ -1940,19 +1940,19 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>138.3993582605025</v>
+        <v>115.1284518538303</v>
       </c>
       <c r="O45" t="n">
-        <v>164.928946411707</v>
+        <v>126.0925041997979</v>
       </c>
     </row>
     <row r="46">
@@ -1978,14 +1978,14 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>142.358946411707</v>
+        <v>121.52</v>
       </c>
       <c r="O46" t="n">
-        <v>142.358946411707</v>
+        <v>131.5141178234333</v>
       </c>
     </row>
     <row r="47">
@@ -2006,19 +2006,19 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>142.358946411707</v>
+        <v>126.0925041997979</v>
       </c>
       <c r="O47" t="n">
-        <v>161.52</v>
+        <v>126.0925041997979</v>
       </c>
     </row>
     <row r="48">
@@ -2039,19 +2039,19 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>143.52</v>
+        <v>126.0925041997979</v>
       </c>
       <c r="O48" t="n">
-        <v>143.52</v>
+        <v>173.4424348960322</v>
       </c>
     </row>
     <row r="49">
@@ -2072,19 +2072,19 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>143.52</v>
+        <v>131.5141178234333</v>
       </c>
       <c r="O49" t="n">
-        <v>143.52</v>
+        <v>131.5141178234333</v>
       </c>
     </row>
     <row r="50">
@@ -2105,19 +2105,19 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>143.52</v>
+        <v>131.5141178234333</v>
       </c>
       <c r="O50" t="n">
-        <v>183.52</v>
+        <v>161.52</v>
       </c>
     </row>
     <row r="51">
@@ -2138,19 +2138,19 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>143.52</v>
+        <v>137.5141178234333</v>
       </c>
       <c r="O51" t="n">
-        <v>143.52</v>
+        <v>148.0841178234333</v>
       </c>
     </row>
     <row r="52">
@@ -2171,19 +2171,19 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N52" t="n">
         <v>143.52</v>
       </c>
       <c r="O52" t="n">
-        <v>154.04</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="53">
@@ -2204,19 +2204,19 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>144.3993582605025</v>
+        <v>143.52</v>
       </c>
       <c r="O53" t="n">
-        <v>155.3634106064702</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="54">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>148.358946411707</v>
+        <v>143.52</v>
       </c>
       <c r="O54" t="n">
-        <v>158.928946411707</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="55">
@@ -2275,14 +2275,14 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>154.04</v>
+        <v>143.52</v>
       </c>
       <c r="O55" t="n">
-        <v>183.52</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="56">
@@ -2303,19 +2303,19 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>155.3634106064702</v>
+        <v>143.52</v>
       </c>
       <c r="O56" t="n">
-        <v>155.3634106064702</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="57">
@@ -2336,19 +2336,19 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>155.3634106064702</v>
+        <v>148.0841178234333</v>
       </c>
       <c r="O57" t="n">
-        <v>178.3504060776352</v>
+        <v>148.0841178234333</v>
       </c>
     </row>
     <row r="58">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>158.928946411707</v>
+        <v>148.0841178234333</v>
       </c>
       <c r="O58" t="n">
-        <v>158.928946411707</v>
+        <v>188.3802082987</v>
       </c>
     </row>
     <row r="59">
@@ -2402,19 +2402,19 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>158.928946411707</v>
+        <v>154.04</v>
       </c>
       <c r="O59" t="n">
-        <v>171.7829212812041</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="60">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>161.52</v>
+        <v>154.0841178234333</v>
       </c>
       <c r="O60" t="n">
-        <v>165.7829212812041</v>
+        <v>167.4424348960322</v>
       </c>
     </row>
     <row r="61">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -2477,10 +2477,10 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>164.928946411707</v>
+        <v>161.52</v>
       </c>
       <c r="O61" t="n">
-        <v>172.3504060776352</v>
+        <v>182.3802082987</v>
       </c>
     </row>
     <row r="62">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>165.7829212812041</v>
+        <v>167.4424348960322</v>
       </c>
       <c r="O62" t="n">
-        <v>165.7829212812041</v>
+        <v>167.4424348960322</v>
       </c>
     </row>
     <row r="63">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>165.7829212812041</v>
+        <v>167.4424348960322</v>
       </c>
       <c r="O63" t="n">
-        <v>201.52</v>
+        <v>204.9502082987</v>
       </c>
     </row>
     <row r="64">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>171.7829212812041</v>
+        <v>173.4424348960322</v>
       </c>
       <c r="O64" t="n">
-        <v>182.3529212812041</v>
+        <v>183.0425921043994</v>
       </c>
     </row>
     <row r="65">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -2609,10 +2609,10 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>172.3504060776352</v>
+        <v>182.3802082987</v>
       </c>
       <c r="O65" t="n">
-        <v>172.3504060776352</v>
+        <v>182.3802082987</v>
       </c>
     </row>
     <row r="66">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>172.3504060776352</v>
+        <v>182.3802082987</v>
       </c>
       <c r="O66" t="n">
-        <v>188.3529212812041</v>
+        <v>201.52</v>
       </c>
     </row>
     <row r="67">
@@ -2671,14 +2671,14 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>178.3504060776352</v>
+        <v>183.0425921043994</v>
       </c>
       <c r="O67" t="n">
-        <v>187.9505632860024</v>
+        <v>183.0425921043994</v>
       </c>
     </row>
     <row r="68">
@@ -2699,19 +2699,19 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>182.3529212812041</v>
+        <v>183.0425921043994</v>
       </c>
       <c r="O68" t="n">
-        <v>182.3529212812041</v>
+        <v>219.4957579792316</v>
       </c>
     </row>
     <row r="69">
@@ -2732,19 +2732,19 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>182.3529212812041</v>
+        <v>183.52</v>
       </c>
       <c r="O69" t="n">
-        <v>223.6288469846695</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="70">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -2803,14 +2803,14 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N71" t="n">
         <v>183.52</v>
       </c>
       <c r="O71" t="n">
-        <v>183.52</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="72">
@@ -2831,19 +2831,19 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N72" t="n">
         <v>183.52</v>
       </c>
       <c r="O72" t="n">
-        <v>223.52</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="73">
@@ -2869,14 +2869,14 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N73" t="n">
         <v>183.52</v>
       </c>
       <c r="O73" t="n">
-        <v>183.52</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="74">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>183.52</v>
+        <v>188.3802082987</v>
       </c>
       <c r="O74" t="n">
-        <v>194.04</v>
+        <v>198.9502082987</v>
       </c>
     </row>
     <row r="75">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -2939,10 +2939,10 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>187.9505632860024</v>
+        <v>194.04</v>
       </c>
       <c r="O75" t="n">
-        <v>187.9505632860024</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="76">
@@ -2963,19 +2963,19 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>187.9505632860024</v>
+        <v>198.9502082987</v>
       </c>
       <c r="O76" t="n">
-        <v>208.5751736593068</v>
+        <v>198.9502082987</v>
       </c>
     </row>
     <row r="77">
@@ -2996,19 +2996,19 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>188.3529212812041</v>
+        <v>198.9502082987</v>
       </c>
       <c r="O77" t="n">
-        <v>202.5751736593068</v>
+        <v>238.8295798915632</v>
       </c>
     </row>
     <row r="78">
@@ -3029,19 +3029,19 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>194.04</v>
+        <v>201.52</v>
       </c>
       <c r="O78" t="n">
-        <v>223.52</v>
+        <v>232.8295798915632</v>
       </c>
     </row>
     <row r="79">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -3071,10 +3071,10 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>201.52</v>
+        <v>204.9502082987</v>
       </c>
       <c r="O79" t="n">
-        <v>217.6288469846695</v>
+        <v>213.4957579792316</v>
       </c>
     </row>
     <row r="80">
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>202.5751736593068</v>
+        <v>213.4957579792316</v>
       </c>
       <c r="O80" t="n">
-        <v>202.5751736593068</v>
+        <v>213.4957579792316</v>
       </c>
     </row>
     <row r="81">
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>202.5751736593068</v>
+        <v>213.4957579792316</v>
       </c>
       <c r="O81" t="n">
-        <v>240.1988469846695</v>
+        <v>255.3995798915632</v>
       </c>
     </row>
     <row r="82">
@@ -3170,10 +3170,10 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>208.5751736593068</v>
+        <v>219.4957579792316</v>
       </c>
       <c r="O82" t="n">
-        <v>218.7539116434126</v>
+        <v>229.6744959633373</v>
       </c>
     </row>
     <row r="83">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>217.6288469846695</v>
+        <v>223.52</v>
       </c>
       <c r="O83" t="n">
-        <v>217.6288469846695</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="84">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -3236,10 +3236,10 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>217.6288469846695</v>
+        <v>223.52</v>
       </c>
       <c r="O84" t="n">
-        <v>241.52</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="85">
@@ -3260,19 +3260,19 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>218.7539116434126</v>
+        <v>223.52</v>
       </c>
       <c r="O85" t="n">
-        <v>218.7539116434126</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="86">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -3302,10 +3302,10 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>218.7539116434126</v>
+        <v>223.52</v>
       </c>
       <c r="O86" t="n">
-        <v>254.9575293667189</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="87">
@@ -3326,19 +3326,19 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N87" t="n">
         <v>223.52</v>
       </c>
       <c r="O87" t="n">
-        <v>223.52</v>
+        <v>234.04</v>
       </c>
     </row>
     <row r="88">
@@ -3359,19 +3359,19 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>223.52</v>
+        <v>229.6744959633373</v>
       </c>
       <c r="O88" t="n">
-        <v>223.52</v>
+        <v>229.6744959633373</v>
       </c>
     </row>
     <row r="89">
@@ -3392,19 +3392,19 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>223.52</v>
+        <v>229.6744959633373</v>
       </c>
       <c r="O89" t="n">
-        <v>263.52</v>
+        <v>303.2195493015359</v>
       </c>
     </row>
     <row r="90">
@@ -3425,19 +3425,19 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>223.52</v>
+        <v>232.8295798915632</v>
       </c>
       <c r="O90" t="n">
-        <v>223.52</v>
+        <v>232.8295798915632</v>
       </c>
     </row>
     <row r="91">
@@ -3458,19 +3458,19 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>223.52</v>
+        <v>232.8295798915632</v>
       </c>
       <c r="O91" t="n">
-        <v>234.04</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="92">
@@ -3491,19 +3491,19 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>223.6288469846695</v>
+        <v>234.04</v>
       </c>
       <c r="O92" t="n">
-        <v>234.1988469846695</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="93">
@@ -3524,19 +3524,19 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>234.04</v>
+        <v>238.8295798915632</v>
       </c>
       <c r="O93" t="n">
-        <v>263.52</v>
+        <v>249.3995798915632</v>
       </c>
     </row>
     <row r="94">
@@ -3557,19 +3557,19 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>234.1988469846695</v>
+        <v>241.52</v>
       </c>
       <c r="O94" t="n">
-        <v>234.1988469846695</v>
+        <v>246.2128964369429</v>
       </c>
     </row>
     <row r="95">
@@ -3590,19 +3590,19 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>234.1988469846695</v>
+        <v>246.2128964369429</v>
       </c>
       <c r="O95" t="n">
-        <v>252.7558654704403</v>
+        <v>246.2128964369429</v>
       </c>
     </row>
     <row r="96">
@@ -3623,19 +3623,19 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>240.1988469846695</v>
+        <v>246.2128964369429</v>
       </c>
       <c r="O96" t="n">
-        <v>248.9575293667189</v>
+        <v>281.52</v>
       </c>
     </row>
     <row r="97">
@@ -3656,19 +3656,19 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>241.52</v>
+        <v>249.3995798915632</v>
       </c>
       <c r="O97" t="n">
-        <v>246.7558654704403</v>
+        <v>249.3995798915632</v>
       </c>
     </row>
     <row r="98">
@@ -3689,19 +3689,19 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>246.7558654704403</v>
+        <v>249.3995798915632</v>
       </c>
       <c r="O98" t="n">
-        <v>246.7558654704403</v>
+        <v>252.2128964369429</v>
       </c>
     </row>
     <row r="99">
@@ -3722,19 +3722,19 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>246.7558654704403</v>
+        <v>252.2128964369429</v>
       </c>
       <c r="O99" t="n">
-        <v>281.52</v>
+        <v>262.7828964369429</v>
       </c>
     </row>
     <row r="100">
@@ -3760,14 +3760,14 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>248.9575293667189</v>
+        <v>255.3995798915632</v>
       </c>
       <c r="O100" t="n">
-        <v>248.9575293667189</v>
+        <v>297.2195493015359</v>
       </c>
     </row>
     <row r="101">
@@ -3788,19 +3788,19 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>248.9575293667189</v>
+        <v>262.7828964369429</v>
       </c>
       <c r="O101" t="n">
-        <v>269.3258654704403</v>
+        <v>262.7828964369429</v>
       </c>
     </row>
     <row r="102">
@@ -3826,14 +3826,14 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>252.7558654704403</v>
+        <v>262.7828964369429</v>
       </c>
       <c r="O102" t="n">
-        <v>263.3258654704403</v>
+        <v>299.031948905071</v>
       </c>
     </row>
     <row r="103">
@@ -3854,19 +3854,19 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>254.9575293667189</v>
+        <v>263.52</v>
       </c>
       <c r="O103" t="n">
-        <v>266.3984225659204</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="104">
@@ -3887,19 +3887,19 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>263.3258654704403</v>
+        <v>263.52</v>
       </c>
       <c r="O104" t="n">
-        <v>263.3258654704403</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="105">
@@ -3920,19 +3920,19 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>263.3258654704403</v>
+        <v>263.52</v>
       </c>
       <c r="O105" t="n">
-        <v>293.2095723619149</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="106">
@@ -3953,20 +3953,18 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N106" t="n">
         <v>263.52</v>
       </c>
-      <c r="O106" t="n">
-        <v>263.52</v>
-      </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3986,19 +3984,19 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>263.52</v>
+        <v>281.52</v>
       </c>
       <c r="O107" t="n">
-        <v>263.52</v>
+        <v>293.031948905071</v>
       </c>
     </row>
     <row r="108">
@@ -4019,19 +4017,19 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>263.52</v>
+        <v>293.031948905071</v>
       </c>
       <c r="O108" t="n">
-        <v>303.52</v>
+        <v>293.031948905071</v>
       </c>
     </row>
     <row r="109">
@@ -4052,7 +4050,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -4061,9 +4059,11 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>263.52</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
+        <v>293.031948905071</v>
+      </c>
+      <c r="O109" t="n">
+        <v>321.52</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>266.3984225659204</v>
+        <v>297.2195493015359</v>
       </c>
       <c r="O110" t="n">
-        <v>266.3984225659204</v>
+        <v>297.2195493015359</v>
       </c>
     </row>
     <row r="111">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -4125,10 +4125,10 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>266.3984225659204</v>
+        <v>297.2195493015359</v>
       </c>
       <c r="O111" t="n">
-        <v>285.2837510325635</v>
+        <v>297.2195493015359</v>
       </c>
     </row>
     <row r="112">
@@ -4158,10 +4158,10 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>269.3258654704403</v>
+        <v>297.2195493015359</v>
       </c>
       <c r="O112" t="n">
-        <v>279.2837510325635</v>
+        <v>308.2372071311196</v>
       </c>
     </row>
     <row r="113">
@@ -4182,19 +4182,19 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>279.2837510325635</v>
+        <v>299.031948905071</v>
       </c>
       <c r="O113" t="n">
-        <v>279.2837510325635</v>
+        <v>302.531948905071</v>
       </c>
     </row>
     <row r="114">
@@ -4215,19 +4215,19 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>279.2837510325635</v>
+        <v>302.531948905071</v>
       </c>
       <c r="O114" t="n">
-        <v>309.7795723619149</v>
+        <v>302.531948905071</v>
       </c>
     </row>
     <row r="115">
@@ -4248,19 +4248,19 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>281.52</v>
+        <v>302.531948905071</v>
       </c>
       <c r="O115" t="n">
-        <v>287.2095723619149</v>
+        <v>331.969041314943</v>
       </c>
     </row>
     <row r="116">
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>285.2837510325635</v>
+        <v>303.2195493015359</v>
       </c>
       <c r="O116" t="n">
-        <v>296.3513090227135</v>
+        <v>314.6604425007374</v>
       </c>
     </row>
     <row r="117">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>287.2095723619149</v>
+        <v>303.52</v>
       </c>
       <c r="O117" t="n">
-        <v>287.2095723619149</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="118">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -4356,10 +4356,10 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>287.2095723619149</v>
+        <v>303.52</v>
       </c>
       <c r="O118" t="n">
-        <v>321.52</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="119">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -4389,10 +4389,10 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>293.2095723619149</v>
+        <v>303.52</v>
       </c>
       <c r="O119" t="n">
-        <v>303.7795723619149</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="120">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>296.3513090227135</v>
+        <v>308.2372071311196</v>
       </c>
       <c r="O120" t="n">
-        <v>296.3513090227135</v>
+        <v>308.2372071311196</v>
       </c>
     </row>
     <row r="121">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -4455,10 +4455,10 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>296.3513090227135</v>
+        <v>308.2372071311196</v>
       </c>
       <c r="O121" t="n">
-        <v>329.0245762286317</v>
+        <v>308.531948905071</v>
       </c>
     </row>
     <row r="122">
@@ -4479,19 +4479,19 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>303.52</v>
+        <v>308.531948905071</v>
       </c>
       <c r="O122" t="n">
-        <v>303.52</v>
+        <v>317.6245984608001</v>
       </c>
     </row>
     <row r="123">
@@ -4512,19 +4512,19 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>303.52</v>
+        <v>314.6604425007374</v>
       </c>
       <c r="O123" t="n">
-        <v>303.52</v>
+        <v>314.6604425007374</v>
       </c>
     </row>
     <row r="124">
@@ -4545,19 +4545,19 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>303.52</v>
+        <v>314.6604425007374</v>
       </c>
       <c r="O124" t="n">
-        <v>343.52</v>
+        <v>314.6604425007374</v>
       </c>
     </row>
     <row r="125">
@@ -4578,19 +4578,19 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>303.7795723619149</v>
+        <v>314.6604425007374</v>
       </c>
       <c r="O125" t="n">
-        <v>303.7795723619149</v>
+        <v>325.7280004908874</v>
       </c>
     </row>
     <row r="126">
@@ -4611,19 +4611,19 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>303.7795723619149</v>
+        <v>317.6245984608001</v>
       </c>
       <c r="O126" t="n">
-        <v>334.1447107569983</v>
+        <v>317.6245984608001</v>
       </c>
     </row>
     <row r="127">
@@ -4649,14 +4649,14 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>309.7795723619149</v>
+        <v>317.6245984608001</v>
       </c>
       <c r="O127" t="n">
-        <v>323.0245762286317</v>
+        <v>341.469041314943</v>
       </c>
     </row>
     <row r="128">
@@ -4689,7 +4689,7 @@
         <v>321.52</v>
       </c>
       <c r="O128" t="n">
-        <v>328.1447107569983</v>
+        <v>325.969041314943</v>
       </c>
     </row>
     <row r="129">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -4719,10 +4719,10 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>323.0245762286317</v>
+        <v>325.7280004908874</v>
       </c>
       <c r="O129" t="n">
-        <v>323.0245762286317</v>
+        <v>325.7280004908874</v>
       </c>
     </row>
     <row r="130">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -4752,10 +4752,10 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>323.0245762286317</v>
+        <v>325.7280004908874</v>
       </c>
       <c r="O130" t="n">
-        <v>350.7147107569983</v>
+        <v>325.7280004908874</v>
       </c>
     </row>
     <row r="131">
@@ -4776,19 +4776,19 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>328.1447107569983</v>
+        <v>325.7280004908874</v>
       </c>
       <c r="O131" t="n">
-        <v>328.1447107569983</v>
+        <v>333.950722611011</v>
       </c>
     </row>
     <row r="132">
@@ -4814,14 +4814,14 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>328.1447107569983</v>
+        <v>325.969041314943</v>
       </c>
       <c r="O132" t="n">
-        <v>361.52</v>
+        <v>325.969041314943</v>
       </c>
     </row>
     <row r="133">
@@ -4842,19 +4842,19 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>329.0245762286317</v>
+        <v>325.969041314943</v>
       </c>
       <c r="O133" t="n">
-        <v>337.2472983487553</v>
+        <v>361.52</v>
       </c>
     </row>
     <row r="134">
@@ -4884,10 +4884,10 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>334.1447107569983</v>
+        <v>331.969041314943</v>
       </c>
       <c r="O134" t="n">
-        <v>344.7147107569983</v>
+        <v>335.469041314943</v>
       </c>
     </row>
     <row r="135">
@@ -4917,10 +4917,10 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>337.2472983487553</v>
+        <v>333.950722611011</v>
       </c>
       <c r="O135" t="n">
-        <v>337.2472983487553</v>
+        <v>333.950722611011</v>
       </c>
     </row>
     <row r="136">
@@ -4950,10 +4950,10 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>337.2472983487553</v>
+        <v>333.950722611011</v>
       </c>
       <c r="O136" t="n">
-        <v>363.4552211046753</v>
+        <v>351.6220242207774</v>
       </c>
     </row>
     <row r="137">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>343.52</v>
+        <v>335.469041314943</v>
       </c>
       <c r="O137" t="n">
-        <v>343.52</v>
+        <v>335.469041314943</v>
       </c>
     </row>
     <row r="138">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -5016,10 +5016,10 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>343.52</v>
+        <v>335.469041314943</v>
       </c>
       <c r="O138" t="n">
-        <v>343.52</v>
+        <v>382.1087756185271</v>
       </c>
     </row>
     <row r="139">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -5049,10 +5049,10 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>343.52</v>
+        <v>341.469041314943</v>
       </c>
       <c r="O139" t="n">
-        <v>383.52</v>
+        <v>345.6220242207774</v>
       </c>
     </row>
     <row r="140">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -5082,10 +5082,10 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>344.7147107569983</v>
+        <v>343.52</v>
       </c>
       <c r="O140" t="n">
-        <v>344.7147107569983</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="141">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>344.7147107569983</v>
+        <v>343.52</v>
       </c>
       <c r="O141" t="n">
-        <v>377.3357518708947</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="142">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -5148,10 +5148,10 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>350.7147107569983</v>
+        <v>343.52</v>
       </c>
       <c r="O142" t="n">
-        <v>357.4552211046753</v>
+        <v>383.52</v>
       </c>
     </row>
     <row r="143">
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>357.4552211046753</v>
+        <v>345.6220242207774</v>
       </c>
       <c r="O143" t="n">
-        <v>357.4552211046753</v>
+        <v>345.6220242207774</v>
       </c>
     </row>
     <row r="144">
@@ -5214,10 +5214,10 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>357.4552211046753</v>
+        <v>345.6220242207774</v>
       </c>
       <c r="O144" t="n">
-        <v>393.9057518708947</v>
+        <v>398.6787756185271</v>
       </c>
     </row>
     <row r="145">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>361.52</v>
+        <v>351.6220242207774</v>
       </c>
       <c r="O145" t="n">
-        <v>371.3357518708947</v>
+        <v>361.772112638303</v>
       </c>
     </row>
     <row r="146">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -5280,10 +5280,10 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>363.4552211046753</v>
+        <v>361.52</v>
       </c>
       <c r="O146" t="n">
-        <v>373.6053095222009</v>
+        <v>376.1087756185271</v>
       </c>
     </row>
     <row r="147">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -5313,10 +5313,10 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>371.3357518708947</v>
+        <v>361.772112638303</v>
       </c>
       <c r="O147" t="n">
-        <v>371.3357518708947</v>
+        <v>361.772112638303</v>
       </c>
     </row>
     <row r="148">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>371.3357518708947</v>
+        <v>361.772112638303</v>
       </c>
       <c r="O148" t="n">
-        <v>401.52</v>
+        <v>428.3715404496953</v>
       </c>
     </row>
     <row r="149">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -5379,10 +5379,10 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>373.6053095222009</v>
+        <v>376.1087756185271</v>
       </c>
       <c r="O149" t="n">
-        <v>373.6053095222009</v>
+        <v>376.1087756185271</v>
       </c>
     </row>
     <row r="150">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>373.6053095222009</v>
+        <v>376.1087756185271</v>
       </c>
       <c r="O150" t="n">
-        <v>419.2839115140445</v>
+        <v>401.52</v>
       </c>
     </row>
     <row r="151">
@@ -5445,10 +5445,10 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>377.3357518708947</v>
+        <v>382.1087756185271</v>
       </c>
       <c r="O151" t="n">
-        <v>387.9057518708947</v>
+        <v>392.6787756185271</v>
       </c>
     </row>
     <row r="152">
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>387.9057518708947</v>
+        <v>392.6787756185271</v>
       </c>
       <c r="O155" t="n">
-        <v>387.9057518708947</v>
+        <v>392.6787756185271</v>
       </c>
     </row>
     <row r="156">
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>387.9057518708947</v>
+        <v>392.6787756185271</v>
       </c>
       <c r="O156" t="n">
-        <v>412.8291410097431</v>
+        <v>419.5099192088014</v>
       </c>
     </row>
     <row r="157">
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>393.9057518708947</v>
+        <v>398.6787756185271</v>
       </c>
       <c r="O157" t="n">
-        <v>413.2839115140445</v>
+        <v>422.3715404496953</v>
       </c>
     </row>
     <row r="158">
@@ -5679,7 +5679,7 @@
         <v>401.52</v>
       </c>
       <c r="O158" t="n">
-        <v>406.8291410097431</v>
+        <v>413.5099192088014</v>
       </c>
     </row>
     <row r="159">
@@ -5709,10 +5709,10 @@
         </is>
       </c>
       <c r="N159" t="n">
-        <v>406.8291410097431</v>
+        <v>413.5099192088014</v>
       </c>
       <c r="O159" t="n">
-        <v>406.8291410097431</v>
+        <v>413.5099192088014</v>
       </c>
     </row>
     <row r="160">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>406.8291410097431</v>
+        <v>413.5099192088014</v>
       </c>
       <c r="O160" t="n">
         <v>441.52</v>
@@ -5775,10 +5775,10 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>412.8291410097431</v>
+        <v>419.5099192088014</v>
       </c>
       <c r="O161" t="n">
-        <v>423.3991410097431</v>
+        <v>430.0799192088014</v>
       </c>
     </row>
     <row r="162">
@@ -5808,10 +5808,10 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>413.2839115140445</v>
+        <v>422.3715404496953</v>
       </c>
       <c r="O162" t="n">
-        <v>413.2839115140445</v>
+        <v>422.3715404496953</v>
       </c>
     </row>
     <row r="163">
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>413.2839115140445</v>
+        <v>422.3715404496953</v>
       </c>
       <c r="O163" t="n">
-        <v>429.3991410097431</v>
+        <v>436.0799192088014</v>
       </c>
     </row>
     <row r="164">
@@ -5865,19 +5865,19 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>419.2839115140445</v>
+        <v>423.52</v>
       </c>
       <c r="O164" t="n">
-        <v>428.3325543057468</v>
+        <v>423.52</v>
       </c>
     </row>
     <row r="165">
@@ -5898,20 +5898,18 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>423.3991410097431</v>
-      </c>
-      <c r="O165" t="n">
-        <v>423.3991410097431</v>
-      </c>
+        <v>423.52</v>
+      </c>
+      <c r="O165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5931,19 +5929,19 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>423.3991410097431</v>
+        <v>428.3715404496953</v>
       </c>
       <c r="O166" t="n">
-        <v>451.4922122802055</v>
+        <v>437.4201832413976</v>
       </c>
     </row>
     <row r="167">
@@ -5964,7 +5962,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -5973,10 +5971,10 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>423.52</v>
+        <v>430.0799192088014</v>
       </c>
       <c r="O167" t="n">
-        <v>423.52</v>
+        <v>430.0799192088014</v>
       </c>
     </row>
     <row r="168">
@@ -5997,7 +5995,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -6006,9 +6004,11 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>423.52</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
+        <v>430.0799192088014</v>
+      </c>
+      <c r="O168" t="n">
+        <v>454.1670263662991</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6028,19 +6028,19 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>428.3325543057468</v>
+        <v>436.0799192088014</v>
       </c>
       <c r="O169" t="n">
-        <v>428.3325543057468</v>
+        <v>447.8300718521417</v>
       </c>
     </row>
     <row r="170">
@@ -6066,14 +6066,14 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>428.3325543057468</v>
+        <v>437.4201832413976</v>
       </c>
       <c r="O170" t="n">
-        <v>462.2705728935611</v>
+        <v>437.4201832413976</v>
       </c>
     </row>
     <row r="171">
@@ -6094,19 +6094,19 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>429.3991410097431</v>
+        <v>437.4201832413976</v>
       </c>
       <c r="O171" t="n">
-        <v>456.2705728935611</v>
+        <v>453.8300718521417</v>
       </c>
     </row>
     <row r="172">
@@ -6139,7 +6139,7 @@
         <v>441.52</v>
       </c>
       <c r="O172" t="n">
-        <v>445.4922122802055</v>
+        <v>448.1670263662991</v>
       </c>
     </row>
     <row r="173">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -6169,10 +6169,10 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>445.4922122802055</v>
+        <v>447.8300718521417</v>
       </c>
       <c r="O173" t="n">
-        <v>445.4922122802055</v>
+        <v>447.8300718521417</v>
       </c>
     </row>
     <row r="174">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -6202,9 +6202,11 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>445.4922122802055</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
+        <v>447.8300718521417</v>
+      </c>
+      <c r="O174" t="n">
+        <v>470.7370263662991</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6224,19 +6226,19 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>451.4922122802055</v>
+        <v>448.1670263662991</v>
       </c>
       <c r="O175" t="n">
-        <v>462.0622122802055</v>
+        <v>448.1670263662991</v>
       </c>
     </row>
     <row r="176">
@@ -6257,20 +6259,18 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>456.2705728935611</v>
-      </c>
-      <c r="O176" t="n">
-        <v>456.2705728935611</v>
-      </c>
+        <v>448.1670263662991</v>
+      </c>
+      <c r="O176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6290,19 +6290,19 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>456.2705728935611</v>
+        <v>453.8300718521417</v>
       </c>
       <c r="O177" t="n">
-        <v>468.0622122802055</v>
+        <v>462.9268530003482</v>
       </c>
     </row>
     <row r="178">
@@ -6328,14 +6328,14 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>462.0622122802055</v>
+        <v>454.1670263662991</v>
       </c>
       <c r="O178" t="n">
-        <v>462.0622122802055</v>
+        <v>464.7370263662991</v>
       </c>
     </row>
     <row r="179">
@@ -6356,18 +6356,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>462.0622122802055</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
+        <v>462.9268530003482</v>
+      </c>
+      <c r="O179" t="n">
+        <v>462.9268530003482</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6392,14 +6394,14 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>462.2705728935611</v>
+        <v>462.9268530003482</v>
       </c>
       <c r="O180" t="n">
-        <v>471.3673540417676</v>
+        <v>480.8688399943525</v>
       </c>
     </row>
     <row r="181">
@@ -6420,19 +6422,19 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N181" t="n">
-        <v>468.0622122802055</v>
+        <v>464.7370263662991</v>
       </c>
       <c r="O181" t="n">
-        <v>477.6093453689278</v>
+        <v>464.7370263662991</v>
       </c>
     </row>
     <row r="182">
@@ -6453,20 +6455,18 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>471.3673540417676</v>
-      </c>
-      <c r="O182" t="n">
-        <v>471.3673540417676</v>
-      </c>
+        <v>464.7370263662991</v>
+      </c>
+      <c r="O182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6486,19 +6486,19 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>471.3673540417676</v>
+        <v>470.7370263662991</v>
       </c>
       <c r="O183" t="n">
-        <v>483.6093453689278</v>
+        <v>474.8688399943525</v>
       </c>
     </row>
     <row r="184">
@@ -6528,10 +6528,10 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>477.6093453689278</v>
+        <v>474.8688399943525</v>
       </c>
       <c r="O184" t="n">
-        <v>477.6093453689278</v>
+        <v>474.8688399943525</v>
       </c>
     </row>
     <row r="185">
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>477.6093453689278</v>
+        <v>474.8688399943525</v>
       </c>
       <c r="O185" t="inlineStr"/>
     </row>
@@ -6592,10 +6592,10 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>483.6093453689278</v>
+        <v>480.8688399943525</v>
       </c>
       <c r="O186" t="n">
-        <v>493.2199438708662</v>
+        <v>490.4794384962909</v>
       </c>
     </row>
     <row r="187">
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>493.2199438708662</v>
+        <v>490.4794384962909</v>
       </c>
       <c r="O187" t="inlineStr"/>
     </row>

--- a/dfi.xlsx
+++ b/dfi.xlsx
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.07859402434674</v>
+        <v>97.83519048827266</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>101.5785940243467</v>
+        <v>114.4051904882727</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>115.1284518538303</v>
+        <v>127.7245733966218</v>
       </c>
     </row>
     <row r="9">
@@ -1457,7 +1457,7 @@
         <v>81.52</v>
       </c>
       <c r="O30" t="n">
-        <v>86.07859402434674</v>
+        <v>91.83519048827266</v>
       </c>
     </row>
     <row r="31">
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>86.07859402434674</v>
+        <v>91.83519048827266</v>
       </c>
       <c r="O31" t="n">
-        <v>86.07859402434674</v>
+        <v>91.83519048827266</v>
       </c>
     </row>
     <row r="32">
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>86.07859402434674</v>
+        <v>91.83519048827266</v>
       </c>
       <c r="O32" t="n">
         <v>121.52</v>
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>92.07859402434674</v>
+        <v>97.83519048827266</v>
       </c>
       <c r="O33" t="n">
-        <v>95.57859402434674</v>
+        <v>108.4051904882727</v>
       </c>
     </row>
     <row r="34">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>95.57859402434674</v>
+        <v>103.52</v>
       </c>
       <c r="O34" t="n">
-        <v>95.57859402434674</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="35">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -1619,10 +1619,10 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>95.57859402434674</v>
+        <v>103.52</v>
       </c>
       <c r="O35" t="n">
-        <v>137.5141178234333</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="36">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>101.5785940243467</v>
+        <v>103.52</v>
       </c>
       <c r="O36" t="n">
-        <v>109.1284518538303</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="37">
@@ -1676,12 +1676,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -1709,19 +1709,19 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N38" t="n">
         <v>103.52</v>
       </c>
       <c r="O38" t="n">
-        <v>103.52</v>
+        <v>114.04</v>
       </c>
     </row>
     <row r="39">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>103.52</v>
+        <v>108.4051904882727</v>
       </c>
       <c r="O39" t="n">
-        <v>143.52</v>
+        <v>108.4051904882727</v>
       </c>
     </row>
     <row r="40">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>103.52</v>
+        <v>108.4051904882727</v>
       </c>
       <c r="O40" t="n">
-        <v>103.52</v>
+        <v>137.8351904882726</v>
       </c>
     </row>
     <row r="41">
@@ -1813,14 +1813,14 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>103.52</v>
+        <v>114.04</v>
       </c>
       <c r="O41" t="n">
-        <v>114.04</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="42">
@@ -1846,14 +1846,14 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>109.1284518538303</v>
+        <v>114.4051904882727</v>
       </c>
       <c r="O42" t="n">
-        <v>109.1284518538303</v>
+        <v>121.7245733966218</v>
       </c>
     </row>
     <row r="43">
@@ -1874,19 +1874,19 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>109.1284518538303</v>
+        <v>121.52</v>
       </c>
       <c r="O43" t="n">
-        <v>154.0841178234333</v>
+        <v>131.8351904882726</v>
       </c>
     </row>
     <row r="44">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -1916,10 +1916,10 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>114.04</v>
+        <v>121.7245733966218</v>
       </c>
       <c r="O44" t="n">
-        <v>143.52</v>
+        <v>121.7245733966218</v>
       </c>
     </row>
     <row r="45">
@@ -1940,19 +1940,19 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>115.1284518538303</v>
+        <v>121.7245733966218</v>
       </c>
       <c r="O45" t="n">
-        <v>126.0925041997979</v>
+        <v>154.4051904882726</v>
       </c>
     </row>
     <row r="46">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>121.52</v>
+        <v>127.7245733966218</v>
       </c>
       <c r="O46" t="n">
-        <v>131.5141178234333</v>
+        <v>140.4526780885571</v>
       </c>
     </row>
     <row r="47">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>126.0925041997979</v>
+        <v>131.8351904882726</v>
       </c>
       <c r="O47" t="n">
-        <v>126.0925041997979</v>
+        <v>131.8351904882726</v>
       </c>
     </row>
     <row r="48">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>126.0925041997979</v>
+        <v>131.8351904882726</v>
       </c>
       <c r="O48" t="n">
-        <v>173.4424348960322</v>
+        <v>161.52</v>
       </c>
     </row>
     <row r="49">
@@ -2072,19 +2072,19 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>131.5141178234333</v>
+        <v>137.8351904882726</v>
       </c>
       <c r="O49" t="n">
-        <v>131.5141178234333</v>
+        <v>148.4051904882726</v>
       </c>
     </row>
     <row r="50">
@@ -2105,19 +2105,19 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>131.5141178234333</v>
+        <v>140.4526780885571</v>
       </c>
       <c r="O50" t="n">
-        <v>161.52</v>
+        <v>140.4526780885571</v>
       </c>
     </row>
     <row r="51">
@@ -2138,19 +2138,19 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>137.5141178234333</v>
+        <v>140.4526780885571</v>
       </c>
       <c r="O51" t="n">
-        <v>148.0841178234333</v>
+        <v>167.7245733966218</v>
       </c>
     </row>
     <row r="52">
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>148.0841178234333</v>
+        <v>148.4051904882726</v>
       </c>
       <c r="O57" t="n">
-        <v>148.0841178234333</v>
+        <v>148.4051904882726</v>
       </c>
     </row>
     <row r="58">
@@ -2378,10 +2378,10 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>148.0841178234333</v>
+        <v>148.4051904882726</v>
       </c>
       <c r="O58" t="n">
-        <v>188.3802082987</v>
+        <v>177.8351904882726</v>
       </c>
     </row>
     <row r="59">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>154.0841178234333</v>
+        <v>154.4051904882726</v>
       </c>
       <c r="O60" t="n">
-        <v>167.4424348960322</v>
+        <v>161.7245733966218</v>
       </c>
     </row>
     <row r="61">
@@ -2480,7 +2480,7 @@
         <v>161.52</v>
       </c>
       <c r="O61" t="n">
-        <v>182.3802082987</v>
+        <v>171.8351904882726</v>
       </c>
     </row>
     <row r="62">
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>167.4424348960322</v>
+        <v>161.7245733966218</v>
       </c>
       <c r="O62" t="n">
-        <v>167.4424348960322</v>
+        <v>161.7245733966218</v>
       </c>
     </row>
     <row r="63">
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>167.4424348960322</v>
+        <v>161.7245733966218</v>
       </c>
       <c r="O63" t="n">
-        <v>204.9502082987</v>
+        <v>194.4051904882726</v>
       </c>
     </row>
     <row r="64">
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>173.4424348960322</v>
+        <v>167.7245733966218</v>
       </c>
       <c r="O64" t="n">
-        <v>183.0425921043994</v>
+        <v>177.7248878133562</v>
       </c>
     </row>
     <row r="65">
@@ -2609,10 +2609,10 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>182.3802082987</v>
+        <v>171.8351904882726</v>
       </c>
       <c r="O65" t="n">
-        <v>182.3802082987</v>
+        <v>171.8351904882726</v>
       </c>
     </row>
     <row r="66">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>182.3802082987</v>
+        <v>171.8351904882726</v>
       </c>
       <c r="O66" t="n">
         <v>201.52</v>
@@ -2675,10 +2675,10 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>183.0425921043994</v>
+        <v>177.7248878133562</v>
       </c>
       <c r="O67" t="n">
-        <v>183.0425921043994</v>
+        <v>177.7248878133562</v>
       </c>
     </row>
     <row r="68">
@@ -2708,10 +2708,10 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>183.0425921043994</v>
+        <v>177.7248878133562</v>
       </c>
       <c r="O68" t="n">
-        <v>219.4957579792316</v>
+        <v>207.7245733966218</v>
       </c>
     </row>
     <row r="69">
@@ -2732,19 +2732,19 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>183.52</v>
+        <v>177.8351904882726</v>
       </c>
       <c r="O69" t="n">
-        <v>183.52</v>
+        <v>188.4051904882726</v>
       </c>
     </row>
     <row r="70">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -2803,14 +2803,14 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N71" t="n">
         <v>183.52</v>
       </c>
       <c r="O71" t="n">
-        <v>223.52</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="72">
@@ -2831,19 +2831,19 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N72" t="n">
         <v>183.52</v>
       </c>
       <c r="O72" t="n">
-        <v>183.52</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="73">
@@ -2869,14 +2869,14 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N73" t="n">
         <v>183.52</v>
       </c>
       <c r="O73" t="n">
-        <v>194.04</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="74">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>188.3802082987</v>
+        <v>183.52</v>
       </c>
       <c r="O74" t="n">
-        <v>198.9502082987</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="75">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -2939,10 +2939,10 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>194.04</v>
+        <v>188.4051904882726</v>
       </c>
       <c r="O75" t="n">
-        <v>223.52</v>
+        <v>188.4051904882726</v>
       </c>
     </row>
     <row r="76">
@@ -2968,14 +2968,14 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>198.9502082987</v>
+        <v>188.4051904882726</v>
       </c>
       <c r="O76" t="n">
-        <v>198.9502082987</v>
+        <v>217.8351904882726</v>
       </c>
     </row>
     <row r="77">
@@ -2996,19 +2996,19 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>198.9502082987</v>
+        <v>194.04</v>
       </c>
       <c r="O77" t="n">
-        <v>238.8295798915632</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="78">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -3038,10 +3038,10 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>201.52</v>
+        <v>194.4051904882726</v>
       </c>
       <c r="O78" t="n">
-        <v>232.8295798915632</v>
+        <v>201.7245733966218</v>
       </c>
     </row>
     <row r="79">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -3071,10 +3071,10 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>204.9502082987</v>
+        <v>201.52</v>
       </c>
       <c r="O79" t="n">
-        <v>213.4957579792316</v>
+        <v>211.8351904882726</v>
       </c>
     </row>
     <row r="80">
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>213.4957579792316</v>
+        <v>201.7245733966218</v>
       </c>
       <c r="O80" t="n">
-        <v>213.4957579792316</v>
+        <v>201.7245733966218</v>
       </c>
     </row>
     <row r="81">
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>213.4957579792316</v>
+        <v>201.7245733966218</v>
       </c>
       <c r="O81" t="n">
-        <v>255.3995798915632</v>
+        <v>234.4051904882726</v>
       </c>
     </row>
     <row r="82">
@@ -3170,10 +3170,10 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>219.4957579792316</v>
+        <v>207.7245733966218</v>
       </c>
       <c r="O82" t="n">
-        <v>229.6744959633373</v>
+        <v>218.8820493648333</v>
       </c>
     </row>
     <row r="83">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>223.52</v>
+        <v>211.8351904882726</v>
       </c>
       <c r="O83" t="n">
-        <v>223.52</v>
+        <v>211.8351904882726</v>
       </c>
     </row>
     <row r="84">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -3236,10 +3236,10 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>223.52</v>
+        <v>211.8351904882726</v>
       </c>
       <c r="O84" t="n">
-        <v>223.52</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="85">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -3269,10 +3269,10 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>223.52</v>
+        <v>217.8351904882726</v>
       </c>
       <c r="O85" t="n">
-        <v>263.52</v>
+        <v>228.4051904882726</v>
       </c>
     </row>
     <row r="86">
@@ -3293,19 +3293,19 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>223.52</v>
+        <v>218.8820493648333</v>
       </c>
       <c r="O86" t="n">
-        <v>223.52</v>
+        <v>218.8820493648333</v>
       </c>
     </row>
     <row r="87">
@@ -3326,19 +3326,19 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>223.52</v>
+        <v>218.8820493648333</v>
       </c>
       <c r="O87" t="n">
-        <v>234.04</v>
+        <v>247.7245733966218</v>
       </c>
     </row>
     <row r="88">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>229.6744959633373</v>
+        <v>223.52</v>
       </c>
       <c r="O88" t="n">
-        <v>229.6744959633373</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="89">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>229.6744959633373</v>
+        <v>223.52</v>
       </c>
       <c r="O89" t="n">
-        <v>303.2195493015359</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="90">
@@ -3425,19 +3425,19 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>232.8295798915632</v>
+        <v>223.52</v>
       </c>
       <c r="O90" t="n">
-        <v>232.8295798915632</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="91">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -3467,10 +3467,10 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>232.8295798915632</v>
+        <v>223.52</v>
       </c>
       <c r="O91" t="n">
-        <v>241.52</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="92">
@@ -3496,14 +3496,14 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N92" t="n">
+        <v>223.52</v>
+      </c>
+      <c r="O92" t="n">
         <v>234.04</v>
-      </c>
-      <c r="O92" t="n">
-        <v>263.52</v>
       </c>
     </row>
     <row r="93">
@@ -3529,14 +3529,14 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>238.8295798915632</v>
+        <v>228.4051904882726</v>
       </c>
       <c r="O93" t="n">
-        <v>249.3995798915632</v>
+        <v>228.4051904882726</v>
       </c>
     </row>
     <row r="94">
@@ -3557,19 +3557,19 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>241.52</v>
+        <v>228.4051904882726</v>
       </c>
       <c r="O94" t="n">
-        <v>246.2128964369429</v>
+        <v>257.8351904882726</v>
       </c>
     </row>
     <row r="95">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>246.2128964369429</v>
+        <v>234.04</v>
       </c>
       <c r="O95" t="n">
-        <v>246.2128964369429</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="96">
@@ -3623,19 +3623,19 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>246.2128964369429</v>
+        <v>234.4051904882726</v>
       </c>
       <c r="O96" t="n">
-        <v>281.52</v>
+        <v>241.7245733966218</v>
       </c>
     </row>
     <row r="97">
@@ -3656,19 +3656,19 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>249.3995798915632</v>
+        <v>241.52</v>
       </c>
       <c r="O97" t="n">
-        <v>249.3995798915632</v>
+        <v>251.8351904882726</v>
       </c>
     </row>
     <row r="98">
@@ -3689,19 +3689,19 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>249.3995798915632</v>
+        <v>241.7245733966218</v>
       </c>
       <c r="O98" t="n">
-        <v>252.2128964369429</v>
+        <v>241.7245733966218</v>
       </c>
     </row>
     <row r="99">
@@ -3722,19 +3722,19 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>252.2128964369429</v>
+        <v>241.7245733966218</v>
       </c>
       <c r="O99" t="n">
-        <v>262.7828964369429</v>
+        <v>274.4051904882726</v>
       </c>
     </row>
     <row r="100">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>255.3995798915632</v>
+        <v>247.7245733966218</v>
       </c>
       <c r="O100" t="n">
-        <v>297.2195493015359</v>
+        <v>261.4063597950247</v>
       </c>
     </row>
     <row r="101">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -3797,10 +3797,10 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>262.7828964369429</v>
+        <v>251.8351904882726</v>
       </c>
       <c r="O101" t="n">
-        <v>262.7828964369429</v>
+        <v>251.8351904882726</v>
       </c>
     </row>
     <row r="102">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -3830,10 +3830,10 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>262.7828964369429</v>
+        <v>251.8351904882726</v>
       </c>
       <c r="O102" t="n">
-        <v>299.031948905071</v>
+        <v>281.52</v>
       </c>
     </row>
     <row r="103">
@@ -3854,19 +3854,19 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>263.52</v>
+        <v>257.8351904882726</v>
       </c>
       <c r="O103" t="n">
-        <v>263.52</v>
+        <v>268.4051904882726</v>
       </c>
     </row>
     <row r="104">
@@ -3887,19 +3887,19 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>263.52</v>
+        <v>261.4063597950247</v>
       </c>
       <c r="O104" t="n">
-        <v>263.52</v>
+        <v>261.4063597950247</v>
       </c>
     </row>
     <row r="105">
@@ -3920,19 +3920,19 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>263.52</v>
+        <v>261.4063597950247</v>
       </c>
       <c r="O105" t="n">
-        <v>303.52</v>
+        <v>287.7245733966218</v>
       </c>
     </row>
     <row r="106">
@@ -3953,18 +3953,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N106" t="n">
         <v>263.52</v>
       </c>
-      <c r="O106" t="inlineStr"/>
+      <c r="O106" t="n">
+        <v>263.52</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3984,19 +3986,19 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>281.52</v>
+        <v>263.52</v>
       </c>
       <c r="O107" t="n">
-        <v>293.031948905071</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="108">
@@ -4017,19 +4019,19 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>293.031948905071</v>
+        <v>263.52</v>
       </c>
       <c r="O108" t="n">
-        <v>293.031948905071</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="109">
@@ -4050,7 +4052,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -4059,11 +4061,9 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>293.031948905071</v>
-      </c>
-      <c r="O109" t="n">
-        <v>321.52</v>
-      </c>
+        <v>263.52</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>297.2195493015359</v>
+        <v>268.4051904882726</v>
       </c>
       <c r="O110" t="n">
-        <v>297.2195493015359</v>
+        <v>268.4051904882726</v>
       </c>
     </row>
     <row r="111">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -4125,10 +4125,10 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>297.2195493015359</v>
+        <v>268.4051904882726</v>
       </c>
       <c r="O111" t="n">
-        <v>297.2195493015359</v>
+        <v>297.8351904882726</v>
       </c>
     </row>
     <row r="112">
@@ -4158,10 +4158,10 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>297.2195493015359</v>
+        <v>274.4051904882726</v>
       </c>
       <c r="O112" t="n">
-        <v>308.2372071311196</v>
+        <v>281.7245733966218</v>
       </c>
     </row>
     <row r="113">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -4191,10 +4191,10 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>299.031948905071</v>
+        <v>281.52</v>
       </c>
       <c r="O113" t="n">
-        <v>302.531948905071</v>
+        <v>291.8351904882726</v>
       </c>
     </row>
     <row r="114">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>302.531948905071</v>
+        <v>281.7245733966218</v>
       </c>
       <c r="O114" t="n">
-        <v>302.531948905071</v>
+        <v>281.7245733966218</v>
       </c>
     </row>
     <row r="115">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -4257,10 +4257,10 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>302.531948905071</v>
+        <v>281.7245733966218</v>
       </c>
       <c r="O115" t="n">
-        <v>331.969041314943</v>
+        <v>314.4051904882726</v>
       </c>
     </row>
     <row r="116">
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>303.2195493015359</v>
+        <v>287.7245733966218</v>
       </c>
       <c r="O116" t="n">
-        <v>314.6604425007374</v>
+        <v>300.6596893769217</v>
       </c>
     </row>
     <row r="117">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>303.52</v>
+        <v>291.8351904882726</v>
       </c>
       <c r="O117" t="n">
-        <v>303.52</v>
+        <v>291.8351904882726</v>
       </c>
     </row>
     <row r="118">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -4356,10 +4356,10 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>303.52</v>
+        <v>291.8351904882726</v>
       </c>
       <c r="O118" t="n">
-        <v>303.52</v>
+        <v>321.52</v>
       </c>
     </row>
     <row r="119">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -4389,10 +4389,10 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>303.52</v>
+        <v>297.8351904882726</v>
       </c>
       <c r="O119" t="n">
-        <v>343.52</v>
+        <v>308.4051904882726</v>
       </c>
     </row>
     <row r="120">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>308.2372071311196</v>
+        <v>300.6596893769217</v>
       </c>
       <c r="O120" t="n">
-        <v>308.2372071311196</v>
+        <v>300.6596893769217</v>
       </c>
     </row>
     <row r="121">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -4455,10 +4455,10 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>308.2372071311196</v>
+        <v>300.6596893769217</v>
       </c>
       <c r="O121" t="n">
-        <v>308.531948905071</v>
+        <v>327.7245733966218</v>
       </c>
     </row>
     <row r="122">
@@ -4479,19 +4479,19 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>308.531948905071</v>
+        <v>303.52</v>
       </c>
       <c r="O122" t="n">
-        <v>317.6245984608001</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="123">
@@ -4512,19 +4512,19 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>314.6604425007374</v>
+        <v>303.52</v>
       </c>
       <c r="O123" t="n">
-        <v>314.6604425007374</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="124">
@@ -4545,19 +4545,19 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>314.6604425007374</v>
+        <v>303.52</v>
       </c>
       <c r="O124" t="n">
-        <v>314.6604425007374</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="125">
@@ -4578,19 +4578,19 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>314.6604425007374</v>
+        <v>308.4051904882726</v>
       </c>
       <c r="O125" t="n">
-        <v>325.7280004908874</v>
+        <v>308.4051904882726</v>
       </c>
     </row>
     <row r="126">
@@ -4611,19 +4611,19 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>317.6245984608001</v>
+        <v>308.4051904882726</v>
       </c>
       <c r="O126" t="n">
-        <v>317.6245984608001</v>
+        <v>337.8351904882726</v>
       </c>
     </row>
     <row r="127">
@@ -4649,14 +4649,14 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>317.6245984608001</v>
+        <v>314.4051904882726</v>
       </c>
       <c r="O127" t="n">
-        <v>341.469041314943</v>
+        <v>321.7245733966218</v>
       </c>
     </row>
     <row r="128">
@@ -4689,7 +4689,7 @@
         <v>321.52</v>
       </c>
       <c r="O128" t="n">
-        <v>325.969041314943</v>
+        <v>331.8351904882726</v>
       </c>
     </row>
     <row r="129">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -4719,10 +4719,10 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>325.7280004908874</v>
+        <v>321.7245733966218</v>
       </c>
       <c r="O129" t="n">
-        <v>325.7280004908874</v>
+        <v>321.7245733966218</v>
       </c>
     </row>
     <row r="130">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -4752,10 +4752,10 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>325.7280004908874</v>
+        <v>321.7245733966218</v>
       </c>
       <c r="O130" t="n">
-        <v>325.7280004908874</v>
+        <v>354.4051904882726</v>
       </c>
     </row>
     <row r="131">
@@ -4785,10 +4785,10 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>325.7280004908874</v>
+        <v>327.7245733966218</v>
       </c>
       <c r="O131" t="n">
-        <v>333.950722611011</v>
+        <v>334.970017636869</v>
       </c>
     </row>
     <row r="132">
@@ -4818,10 +4818,10 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>325.969041314943</v>
+        <v>331.8351904882726</v>
       </c>
       <c r="O132" t="n">
-        <v>325.969041314943</v>
+        <v>331.8351904882726</v>
       </c>
     </row>
     <row r="133">
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>325.969041314943</v>
+        <v>331.8351904882726</v>
       </c>
       <c r="O133" t="n">
         <v>361.52</v>
@@ -4875,19 +4875,19 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>331.969041314943</v>
+        <v>334.970017636869</v>
       </c>
       <c r="O134" t="n">
-        <v>335.469041314943</v>
+        <v>334.970017636869</v>
       </c>
     </row>
     <row r="135">
@@ -4913,14 +4913,14 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>333.950722611011</v>
+        <v>334.970017636869</v>
       </c>
       <c r="O135" t="n">
-        <v>333.950722611011</v>
+        <v>367.7245733966218</v>
       </c>
     </row>
     <row r="136">
@@ -4941,19 +4941,19 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>333.950722611011</v>
+        <v>337.8351904882726</v>
       </c>
       <c r="O136" t="n">
-        <v>351.6220242207774</v>
+        <v>348.4051904882726</v>
       </c>
     </row>
     <row r="137">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>335.469041314943</v>
+        <v>343.52</v>
       </c>
       <c r="O137" t="n">
-        <v>335.469041314943</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="138">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -5016,10 +5016,10 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>335.469041314943</v>
+        <v>343.52</v>
       </c>
       <c r="O138" t="n">
-        <v>382.1087756185271</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="139">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -5049,10 +5049,10 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>341.469041314943</v>
+        <v>343.52</v>
       </c>
       <c r="O139" t="n">
-        <v>345.6220242207774</v>
+        <v>383.52</v>
       </c>
     </row>
     <row r="140">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -5082,10 +5082,10 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>343.52</v>
+        <v>348.4051904882726</v>
       </c>
       <c r="O140" t="n">
-        <v>343.52</v>
+        <v>348.4051904882726</v>
       </c>
     </row>
     <row r="141">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>343.52</v>
+        <v>348.4051904882726</v>
       </c>
       <c r="O141" t="n">
-        <v>343.52</v>
+        <v>377.8351904882726</v>
       </c>
     </row>
     <row r="142">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -5148,10 +5148,10 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>343.52</v>
+        <v>354.4051904882726</v>
       </c>
       <c r="O142" t="n">
-        <v>383.52</v>
+        <v>361.7245733966218</v>
       </c>
     </row>
     <row r="143">
@@ -5172,19 +5172,19 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>345.6220242207774</v>
+        <v>361.52</v>
       </c>
       <c r="O143" t="n">
-        <v>345.6220242207774</v>
+        <v>371.8351904882726</v>
       </c>
     </row>
     <row r="144">
@@ -5210,14 +5210,14 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>345.6220242207774</v>
+        <v>361.7245733966218</v>
       </c>
       <c r="O144" t="n">
-        <v>398.6787756185271</v>
+        <v>361.7245733966218</v>
       </c>
     </row>
     <row r="145">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>351.6220242207774</v>
+        <v>361.7245733966218</v>
       </c>
       <c r="O145" t="n">
-        <v>361.772112638303</v>
+        <v>394.4051904882726</v>
       </c>
     </row>
     <row r="146">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -5280,10 +5280,10 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>361.52</v>
+        <v>367.7245733966218</v>
       </c>
       <c r="O146" t="n">
-        <v>376.1087756185271</v>
+        <v>378.824750231673</v>
       </c>
     </row>
     <row r="147">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -5313,10 +5313,10 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>361.772112638303</v>
+        <v>371.8351904882726</v>
       </c>
       <c r="O147" t="n">
-        <v>361.772112638303</v>
+        <v>371.8351904882726</v>
       </c>
     </row>
     <row r="148">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>361.772112638303</v>
+        <v>371.8351904882726</v>
       </c>
       <c r="O148" t="n">
-        <v>428.3715404496953</v>
+        <v>401.52</v>
       </c>
     </row>
     <row r="149">
@@ -5370,19 +5370,19 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>376.1087756185271</v>
+        <v>377.8351904882726</v>
       </c>
       <c r="O149" t="n">
-        <v>376.1087756185271</v>
+        <v>388.4051904882726</v>
       </c>
     </row>
     <row r="150">
@@ -5403,19 +5403,19 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>376.1087756185271</v>
+        <v>378.824750231673</v>
       </c>
       <c r="O150" t="n">
-        <v>401.52</v>
+        <v>378.824750231673</v>
       </c>
     </row>
     <row r="151">
@@ -5436,19 +5436,19 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>382.1087756185271</v>
+        <v>378.824750231673</v>
       </c>
       <c r="O151" t="n">
-        <v>392.6787756185271</v>
+        <v>407.7245733966218</v>
       </c>
     </row>
     <row r="152">
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>392.6787756185271</v>
+        <v>388.4051904882726</v>
       </c>
       <c r="O155" t="n">
-        <v>392.6787756185271</v>
+        <v>388.4051904882726</v>
       </c>
     </row>
     <row r="156">
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>392.6787756185271</v>
+        <v>388.4051904882726</v>
       </c>
       <c r="O156" t="n">
-        <v>419.5099192088014</v>
+        <v>417.8351904882726</v>
       </c>
     </row>
     <row r="157">
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>398.6787756185271</v>
+        <v>394.4051904882726</v>
       </c>
       <c r="O157" t="n">
-        <v>422.3715404496953</v>
+        <v>401.7245733966218</v>
       </c>
     </row>
     <row r="158">
@@ -5679,7 +5679,7 @@
         <v>401.52</v>
       </c>
       <c r="O158" t="n">
-        <v>413.5099192088014</v>
+        <v>411.8351904882726</v>
       </c>
     </row>
     <row r="159">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -5709,10 +5709,10 @@
         </is>
       </c>
       <c r="N159" t="n">
-        <v>413.5099192088014</v>
+        <v>401.7245733966218</v>
       </c>
       <c r="O159" t="n">
-        <v>413.5099192088014</v>
+        <v>401.7245733966218</v>
       </c>
     </row>
     <row r="160">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -5742,10 +5742,10 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>413.5099192088014</v>
+        <v>401.7245733966218</v>
       </c>
       <c r="O160" t="n">
-        <v>441.52</v>
+        <v>434.4051904882726</v>
       </c>
     </row>
     <row r="161">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -5775,10 +5775,10 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>419.5099192088014</v>
+        <v>407.7245733966218</v>
       </c>
       <c r="O161" t="n">
-        <v>430.0799192088014</v>
+        <v>416.6218589800264</v>
       </c>
     </row>
     <row r="162">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -5808,10 +5808,10 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>422.3715404496953</v>
+        <v>411.8351904882726</v>
       </c>
       <c r="O162" t="n">
-        <v>422.3715404496953</v>
+        <v>411.8351904882726</v>
       </c>
     </row>
     <row r="163">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>422.3715404496953</v>
+        <v>411.8351904882726</v>
       </c>
       <c r="O163" t="n">
-        <v>436.0799192088014</v>
+        <v>441.52</v>
       </c>
     </row>
     <row r="164">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -5874,10 +5874,10 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>423.52</v>
+        <v>416.6218589800264</v>
       </c>
       <c r="O164" t="n">
-        <v>423.52</v>
+        <v>416.6218589800264</v>
       </c>
     </row>
     <row r="165">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -5907,9 +5907,11 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>423.52</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
+        <v>416.6218589800264</v>
+      </c>
+      <c r="O165" t="n">
+        <v>447.7245733966218</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5929,7 +5931,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -5938,10 +5940,10 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>428.3715404496953</v>
+        <v>417.8351904882726</v>
       </c>
       <c r="O166" t="n">
-        <v>437.4201832413976</v>
+        <v>428.4051904882726</v>
       </c>
     </row>
     <row r="167">
@@ -5962,7 +5964,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -5971,10 +5973,10 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>430.0799192088014</v>
+        <v>423.52</v>
       </c>
       <c r="O167" t="n">
-        <v>430.0799192088014</v>
+        <v>423.52</v>
       </c>
     </row>
     <row r="168">
@@ -5995,7 +5997,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -6004,11 +6006,9 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>430.0799192088014</v>
-      </c>
-      <c r="O168" t="n">
-        <v>454.1670263662991</v>
-      </c>
+        <v>423.52</v>
+      </c>
+      <c r="O168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6028,19 +6028,19 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>436.0799192088014</v>
+        <v>428.4051904882726</v>
       </c>
       <c r="O169" t="n">
-        <v>447.8300718521417</v>
+        <v>428.4051904882726</v>
       </c>
     </row>
     <row r="170">
@@ -6061,19 +6061,19 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>437.4201832413976</v>
+        <v>428.4051904882726</v>
       </c>
       <c r="O170" t="n">
-        <v>437.4201832413976</v>
+        <v>457.8351904882726</v>
       </c>
     </row>
     <row r="171">
@@ -6094,19 +6094,19 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>437.4201832413976</v>
+        <v>434.4051904882726</v>
       </c>
       <c r="O171" t="n">
-        <v>453.8300718521417</v>
+        <v>441.7245733966218</v>
       </c>
     </row>
     <row r="172">
@@ -6139,7 +6139,7 @@
         <v>441.52</v>
       </c>
       <c r="O172" t="n">
-        <v>448.1670263662991</v>
+        <v>451.8351904882726</v>
       </c>
     </row>
     <row r="173">
@@ -6169,10 +6169,10 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>447.8300718521417</v>
+        <v>441.7245733966218</v>
       </c>
       <c r="O173" t="n">
-        <v>447.8300718521417</v>
+        <v>441.7245733966218</v>
       </c>
     </row>
     <row r="174">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>447.8300718521417</v>
+        <v>441.7245733966218</v>
       </c>
       <c r="O174" t="n">
-        <v>470.7370263662991</v>
+        <v>474.4051904882726</v>
       </c>
     </row>
     <row r="175">
@@ -6226,19 +6226,19 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>448.1670263662991</v>
+        <v>447.7245733966218</v>
       </c>
       <c r="O175" t="n">
-        <v>448.1670263662991</v>
+        <v>456.7181356930347</v>
       </c>
     </row>
     <row r="176">
@@ -6264,13 +6264,15 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>448.1670263662991</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
+        <v>451.8351904882726</v>
+      </c>
+      <c r="O176" t="n">
+        <v>451.8351904882726</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6290,20 +6292,18 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>453.8300718521417</v>
-      </c>
-      <c r="O177" t="n">
-        <v>462.9268530003482</v>
-      </c>
+        <v>451.8351904882726</v>
+      </c>
+      <c r="O177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6323,19 +6323,19 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>454.1670263662991</v>
+        <v>456.7181356930347</v>
       </c>
       <c r="O178" t="n">
-        <v>464.7370263662991</v>
+        <v>456.7181356930347</v>
       </c>
     </row>
     <row r="179">
@@ -6361,14 +6361,14 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>462.9268530003482</v>
+        <v>456.7181356930347</v>
       </c>
       <c r="O179" t="n">
-        <v>462.9268530003482</v>
+        <v>487.7245733966218</v>
       </c>
     </row>
     <row r="180">
@@ -6389,19 +6389,19 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>462.9268530003482</v>
+        <v>457.8351904882726</v>
       </c>
       <c r="O180" t="n">
-        <v>480.8688399943525</v>
+        <v>468.4051904882726</v>
       </c>
     </row>
     <row r="181">
@@ -6431,10 +6431,10 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>464.7370263662991</v>
+        <v>468.4051904882726</v>
       </c>
       <c r="O181" t="n">
-        <v>464.7370263662991</v>
+        <v>468.4051904882726</v>
       </c>
     </row>
     <row r="182">
@@ -6464,7 +6464,7 @@
         </is>
       </c>
       <c r="N182" t="n">
-        <v>464.7370263662991</v>
+        <v>468.4051904882726</v>
       </c>
       <c r="O182" t="inlineStr"/>
     </row>
@@ -6495,10 +6495,10 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>470.7370263662991</v>
+        <v>474.4051904882726</v>
       </c>
       <c r="O183" t="n">
-        <v>474.8688399943525</v>
+        <v>481.7245733966218</v>
       </c>
     </row>
     <row r="184">
@@ -6528,10 +6528,10 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>474.8688399943525</v>
+        <v>481.7245733966218</v>
       </c>
       <c r="O184" t="n">
-        <v>474.8688399943525</v>
+        <v>481.7245733966218</v>
       </c>
     </row>
     <row r="185">
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>474.8688399943525</v>
+        <v>481.7245733966218</v>
       </c>
       <c r="O185" t="inlineStr"/>
     </row>
@@ -6592,10 +6592,10 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>480.8688399943525</v>
+        <v>487.7245733966218</v>
       </c>
       <c r="O186" t="n">
-        <v>490.4794384962909</v>
+        <v>497.7457704004985</v>
       </c>
     </row>
     <row r="187">
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>490.4794384962909</v>
+        <v>497.7457704004985</v>
       </c>
       <c r="O187" t="inlineStr"/>
     </row>

--- a/dfi.xlsx
+++ b/dfi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,206 +509,164 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001E235A41650&gt;</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E2" t="n">
-        <v>40</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.64513793119204</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.807942639991795</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7.245444240247178</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001E2391F6790&gt;</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E3" t="n">
-        <v>40</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
-        <v>3.64513793119204</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.807942639991795</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11.10017683505118</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001E23A2F5150&gt;</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>robot</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.64513793119204</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.807942639991795</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8.897285583404603</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001E235A40F10&gt;</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.64513793119204</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.807942639991795</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.993562296412884</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>61.52</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001E239CB16D0&gt;</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
-        <v>3.64513793119204</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.807942639991795</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10.02119700387674</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>71.20053822476727</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -728,7 +686,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -739,7 +697,9 @@
       <c r="N7" t="n">
         <v>0</v>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>87.77053822476728</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -759,7 +719,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -770,7 +730,9 @@
       <c r="N8" t="n">
         <v>0</v>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>113.2552373854407</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -790,18 +752,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>17.52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -821,18 +785,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
+        <v>17.52</v>
+      </c>
+      <c r="O10" t="n">
+        <v>17.52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -852,7 +818,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -861,9 +827,11 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
+        <v>17.52</v>
+      </c>
+      <c r="O11" t="n">
+        <v>17.52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -883,18 +851,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
+        <v>17.52</v>
+      </c>
+      <c r="O12" t="n">
+        <v>28.04</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -914,18 +884,5750 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="O13" t="n">
+        <v>43.52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="O14" t="n">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="O15" t="n">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="O16" t="n">
+        <v>38.56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>38.56</v>
+      </c>
+      <c r="O17" t="n">
+        <v>38.56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>38.56</v>
+      </c>
+      <c r="O18" t="n">
+        <v>38.56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>38.56</v>
+      </c>
+      <c r="O19" t="n">
+        <v>49.08</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="O20" t="n">
+        <v>43.52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="O21" t="n">
+        <v>43.52</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="O22" t="n">
+        <v>63.52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="O23" t="n">
+        <v>49.08</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="O24" t="n">
+        <v>49.08</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="O25" t="n">
+        <v>59.59999999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>59.59999999999999</v>
+      </c>
+      <c r="O26" t="n">
+        <v>59.59999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>59.59999999999999</v>
+      </c>
+      <c r="O27" t="n">
+        <v>59.59999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>59.59999999999999</v>
+      </c>
+      <c r="O28" t="n">
+        <v>70.11999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>61.52</v>
+      </c>
+      <c r="O29" t="n">
+        <v>65.20053822476727</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>63.52</v>
+      </c>
+      <c r="O30" t="n">
+        <v>63.52</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>63.52</v>
+      </c>
+      <c r="O31" t="n">
+        <v>63.52</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>63.52</v>
+      </c>
+      <c r="O32" t="n">
+        <v>83.52</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>65.20053822476727</v>
+      </c>
+      <c r="O33" t="n">
+        <v>65.20053822476727</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>65.20053822476727</v>
+      </c>
+      <c r="O34" t="n">
+        <v>81.52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>70.11999999999999</v>
+      </c>
+      <c r="O35" t="n">
+        <v>70.11999999999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>70.11999999999999</v>
+      </c>
+      <c r="O36" t="n">
+        <v>70.11999999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>70.11999999999999</v>
+      </c>
+      <c r="O37" t="n">
+        <v>80.63999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>71.20053822476727</v>
+      </c>
+      <c r="O38" t="n">
+        <v>81.77053822476728</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>80.63999999999999</v>
+      </c>
+      <c r="O39" t="n">
+        <v>83.52</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="O40" t="n">
+        <v>85.20053822476727</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>81.77053822476728</v>
+      </c>
+      <c r="O41" t="n">
+        <v>81.77053822476728</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>81.77053822476728</v>
+      </c>
+      <c r="O42" t="n">
+        <v>91.20053822476727</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="O43" t="n">
+        <v>83.52</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="O44" t="n">
+        <v>83.52</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="O45" t="n">
+        <v>103.52</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="O46" t="n">
+        <v>83.52</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="O47" t="n">
+        <v>94.03999999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>85.20053822476727</v>
+      </c>
+      <c r="O48" t="n">
+        <v>85.20053822476727</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>85.20053822476727</v>
+      </c>
+      <c r="O49" t="n">
+        <v>101.52</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>87.77053822476728</v>
+      </c>
+      <c r="O50" t="n">
+        <v>107.2552373854407</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>91.20053822476727</v>
+      </c>
+      <c r="O51" t="n">
+        <v>101.7705382247673</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>94.03999999999999</v>
+      </c>
+      <c r="O52" t="n">
+        <v>103.52</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>101.52</v>
+      </c>
+      <c r="O53" t="n">
+        <v>105.2005382247673</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>101.7705382247673</v>
+      </c>
+      <c r="O54" t="n">
+        <v>101.7705382247673</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>101.7705382247673</v>
+      </c>
+      <c r="O55" t="n">
+        <v>111.2005382247673</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>103.52</v>
+      </c>
+      <c r="O56" t="n">
+        <v>103.52</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>103.52</v>
+      </c>
+      <c r="O57" t="n">
+        <v>103.52</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>103.52</v>
+      </c>
+      <c r="O58" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>103.52</v>
+      </c>
+      <c r="O59" t="n">
+        <v>103.52</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>103.52</v>
+      </c>
+      <c r="O60" t="n">
+        <v>114.04</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>105.2005382247673</v>
+      </c>
+      <c r="O61" t="n">
+        <v>105.2005382247673</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>105.2005382247673</v>
+      </c>
+      <c r="O62" t="n">
+        <v>121.52</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>107.2552373854407</v>
+      </c>
+      <c r="O63" t="n">
+        <v>107.2552373854407</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>107.2552373854407</v>
+      </c>
+      <c r="O64" t="n">
+        <v>107.7705382247673</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>107.7705382247673</v>
+      </c>
+      <c r="O65" t="n">
+        <v>127.2552373854407</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>111.2005382247673</v>
+      </c>
+      <c r="O66" t="n">
+        <v>121.7705382247673</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>113.2552373854407</v>
+      </c>
+      <c r="O67" t="n">
+        <v>125.983342077376</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>114.04</v>
+      </c>
+      <c r="O68" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>121.52</v>
+      </c>
+      <c r="O69" t="n">
+        <v>125.2005382247673</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>121.7705382247673</v>
+      </c>
+      <c r="O70" t="n">
+        <v>121.7705382247673</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>Starving</t>
         </is>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>121.7705382247673</v>
+      </c>
+      <c r="O71" t="n">
+        <v>131.2005382247673</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>123.52</v>
+      </c>
+      <c r="O72" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>123.52</v>
+      </c>
+      <c r="O73" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>123.52</v>
+      </c>
+      <c r="O74" t="n">
+        <v>143.52</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>123.52</v>
+      </c>
+      <c r="O75" t="n">
+        <v>170.4127133536522</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>125.2005382247673</v>
+      </c>
+      <c r="O76" t="n">
+        <v>125.2005382247673</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>125.2005382247673</v>
+      </c>
+      <c r="O77" t="n">
+        <v>141.52</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>125.983342077376</v>
+      </c>
+      <c r="O78" t="n">
+        <v>125.983342077376</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>125.983342077376</v>
+      </c>
+      <c r="O79" t="n">
+        <v>133.2552373854407</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>127.2552373854407</v>
+      </c>
+      <c r="O80" t="n">
+        <v>127.2552373854407</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>127.2552373854407</v>
+      </c>
+      <c r="O81" t="n">
+        <v>127.7705382247673</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>127.7705382247673</v>
+      </c>
+      <c r="O82" t="n">
+        <v>147.2552373854407</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>131.2005382247673</v>
+      </c>
+      <c r="O83" t="n">
+        <v>141.7705382247673</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>133.2552373854407</v>
+      </c>
+      <c r="O84" t="n">
+        <v>143.2555518021751</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>141.52</v>
+      </c>
+      <c r="O85" t="n">
+        <v>145.2005382247673</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>141.7705382247673</v>
+      </c>
+      <c r="O86" t="n">
+        <v>141.7705382247673</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>141.7705382247673</v>
+      </c>
+      <c r="O87" t="n">
+        <v>151.2005382247673</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>143.2555518021751</v>
+      </c>
+      <c r="O88" t="n">
+        <v>143.2555518021751</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>143.2555518021751</v>
+      </c>
+      <c r="O89" t="n">
+        <v>153.2552373854407</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>143.52</v>
+      </c>
+      <c r="O90" t="n">
+        <v>143.52</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>143.52</v>
+      </c>
+      <c r="O91" t="n">
+        <v>143.52</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>143.52</v>
+      </c>
+      <c r="O92" t="n">
+        <v>163.52</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>145.2005382247673</v>
+      </c>
+      <c r="O93" t="n">
+        <v>145.2005382247673</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>145.2005382247673</v>
+      </c>
+      <c r="O94" t="n">
+        <v>161.52</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>147.2552373854407</v>
+      </c>
+      <c r="O95" t="n">
+        <v>147.2552373854407</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>147.2552373854407</v>
+      </c>
+      <c r="O96" t="n">
+        <v>147.7705382247673</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>147.7705382247673</v>
+      </c>
+      <c r="O97" t="n">
+        <v>167.2552373854407</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>151.2005382247673</v>
+      </c>
+      <c r="O98" t="n">
+        <v>161.7705382247673</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>153.2552373854407</v>
+      </c>
+      <c r="O99" t="n">
+        <v>164.4127133536522</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>161.52</v>
+      </c>
+      <c r="O100" t="n">
+        <v>165.2005382247673</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>161.7705382247673</v>
+      </c>
+      <c r="O101" t="n">
+        <v>161.7705382247673</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>161.7705382247673</v>
+      </c>
+      <c r="O102" t="n">
+        <v>171.2005382247673</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>163.52</v>
+      </c>
+      <c r="O103" t="n">
+        <v>163.52</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>163.52</v>
+      </c>
+      <c r="O104" t="n">
+        <v>163.52</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>163.52</v>
+      </c>
+      <c r="O105" t="n">
+        <v>183.52</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>164.4127133536522</v>
+      </c>
+      <c r="O106" t="n">
+        <v>164.4127133536522</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>164.4127133536522</v>
+      </c>
+      <c r="O107" t="n">
+        <v>173.2552373854407</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>165.2005382247673</v>
+      </c>
+      <c r="O108" t="n">
+        <v>165.2005382247673</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>165.2005382247673</v>
+      </c>
+      <c r="O109" t="n">
+        <v>181.52</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>167.2552373854407</v>
+      </c>
+      <c r="O110" t="n">
+        <v>167.2552373854407</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>167.2552373854407</v>
+      </c>
+      <c r="O111" t="n">
+        <v>167.7705382247673</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>167.7705382247673</v>
+      </c>
+      <c r="O112" t="n">
+        <v>187.2552373854407</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>170.4127133536522</v>
+      </c>
+      <c r="O113" t="n">
+        <v>180.9327133536522</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>171.2005382247673</v>
+      </c>
+      <c r="O114" t="n">
+        <v>181.7705382247673</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>173.2552373854407</v>
+      </c>
+      <c r="O115" t="n">
+        <v>186.9370237838436</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>180.9327133536522</v>
+      </c>
+      <c r="O116" t="n">
+        <v>180.9327133536522</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>180.9327133536522</v>
+      </c>
+      <c r="O117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>181.52</v>
+      </c>
+      <c r="O118" t="n">
+        <v>185.2005382247673</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>181.7705382247673</v>
+      </c>
+      <c r="O119" t="n">
+        <v>181.7705382247673</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>181.7705382247673</v>
+      </c>
+      <c r="O120" t="n">
+        <v>191.2005382247673</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>183.52</v>
+      </c>
+      <c r="O121" t="n">
+        <v>183.52</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>183.52</v>
+      </c>
+      <c r="O122" t="n">
+        <v>183.52</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>183.52</v>
+      </c>
+      <c r="O123" t="n">
+        <v>203.52</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>185.2005382247673</v>
+      </c>
+      <c r="O124" t="n">
+        <v>185.2005382247673</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>185.2005382247673</v>
+      </c>
+      <c r="O125" t="n">
+        <v>201.52</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>186.9370237838436</v>
+      </c>
+      <c r="O126" t="n">
+        <v>186.9370237838436</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>186.9370237838436</v>
+      </c>
+      <c r="O127" t="n">
+        <v>193.2552373854407</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>187.2552373854407</v>
+      </c>
+      <c r="O128" t="n">
+        <v>187.2552373854407</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>187.2552373854407</v>
+      </c>
+      <c r="O129" t="n">
+        <v>187.7705382247673</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>187.7705382247673</v>
+      </c>
+      <c r="O130" t="n">
+        <v>207.2552373854407</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>191.2005382247673</v>
+      </c>
+      <c r="O131" t="n">
+        <v>201.7705382247673</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>193.2552373854407</v>
+      </c>
+      <c r="O132" t="n">
+        <v>206.1903533657406</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>201.52</v>
+      </c>
+      <c r="O133" t="n">
+        <v>205.2005382247673</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>201.7705382247673</v>
+      </c>
+      <c r="O134" t="n">
+        <v>201.7705382247673</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>201.7705382247673</v>
+      </c>
+      <c r="O135" t="n">
+        <v>211.2005382247673</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>203.52</v>
+      </c>
+      <c r="O136" t="n">
+        <v>203.52</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>203.52</v>
+      </c>
+      <c r="O137" t="n">
+        <v>203.52</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>203.52</v>
+      </c>
+      <c r="O138" t="n">
+        <v>223.52</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>205.2005382247673</v>
+      </c>
+      <c r="O139" t="n">
+        <v>205.2005382247673</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>205.2005382247673</v>
+      </c>
+      <c r="O140" t="n">
+        <v>221.52</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>206.1903533657406</v>
+      </c>
+      <c r="O141" t="n">
+        <v>206.1903533657406</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>206.1903533657406</v>
+      </c>
+      <c r="O142" t="n">
+        <v>213.2552373854407</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>207.2552373854407</v>
+      </c>
+      <c r="O143" t="n">
+        <v>207.2552373854407</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>207.2552373854407</v>
+      </c>
+      <c r="O144" t="n">
+        <v>207.7705382247673</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>207.7705382247673</v>
+      </c>
+      <c r="O145" t="n">
+        <v>227.2552373854407</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>211.2005382247673</v>
+      </c>
+      <c r="O146" t="n">
+        <v>221.7705382247673</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>213.2552373854407</v>
+      </c>
+      <c r="O147" t="n">
+        <v>220.5006816256878</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>220.5006816256878</v>
+      </c>
+      <c r="O148" t="n">
+        <v>220.5006816256878</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>220.5006816256878</v>
+      </c>
+      <c r="O149" t="n">
+        <v>233.2552373854407</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>221.52</v>
+      </c>
+      <c r="O150" t="n">
+        <v>225.2005382247673</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>221.7705382247673</v>
+      </c>
+      <c r="O151" t="n">
+        <v>221.7705382247673</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>221.7705382247673</v>
+      </c>
+      <c r="O152" t="n">
+        <v>231.2005382247673</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>223.52</v>
+      </c>
+      <c r="O153" t="n">
+        <v>223.52</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>223.52</v>
+      </c>
+      <c r="O154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>225.2005382247673</v>
+      </c>
+      <c r="O155" t="n">
+        <v>225.2005382247673</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>225.2005382247673</v>
+      </c>
+      <c r="O156" t="n">
+        <v>241.52</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>227.2552373854407</v>
+      </c>
+      <c r="O157" t="n">
+        <v>227.2552373854407</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>227.2552373854407</v>
+      </c>
+      <c r="O158" t="n">
+        <v>227.7705382247673</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>227.7705382247673</v>
+      </c>
+      <c r="O159" t="n">
+        <v>247.2552373854407</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>231.2005382247673</v>
+      </c>
+      <c r="O160" t="n">
+        <v>241.7705382247673</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>233.2552373854407</v>
+      </c>
+      <c r="O161" t="n">
+        <v>244.3554142204918</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>241.52</v>
+      </c>
+      <c r="O162" t="n">
+        <v>245.2005382247673</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>241.7705382247673</v>
+      </c>
+      <c r="O163" t="n">
+        <v>241.7705382247673</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>241.7705382247673</v>
+      </c>
+      <c r="O164" t="n">
+        <v>251.2005382247673</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>244.3554142204918</v>
+      </c>
+      <c r="O165" t="n">
+        <v>244.3554142204918</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>244.3554142204918</v>
+      </c>
+      <c r="O166" t="n">
+        <v>253.2552373854407</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>245.2005382247673</v>
+      </c>
+      <c r="O167" t="n">
+        <v>245.2005382247673</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>245.2005382247673</v>
+      </c>
+      <c r="O168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>247.2552373854407</v>
+      </c>
+      <c r="O169" t="n">
+        <v>247.2552373854407</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>247.2552373854407</v>
+      </c>
+      <c r="O170" t="n">
+        <v>247.7705382247673</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>247.7705382247673</v>
+      </c>
+      <c r="O171" t="n">
+        <v>267.2552373854406</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>251.2005382247673</v>
+      </c>
+      <c r="O172" t="n">
+        <v>261.7705382247673</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>253.2552373854407</v>
+      </c>
+      <c r="O173" t="n">
+        <v>262.1525229688453</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>261.7705382247673</v>
+      </c>
+      <c r="O174" t="n">
+        <v>261.7705382247673</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>261.7705382247673</v>
+      </c>
+      <c r="O175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>262.1525229688453</v>
+      </c>
+      <c r="O176" t="n">
+        <v>262.1525229688453</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>262.1525229688453</v>
+      </c>
+      <c r="O177" t="n">
+        <v>273.2552373854406</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>267.2552373854406</v>
+      </c>
+      <c r="O178" t="n">
+        <v>267.2552373854406</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>267.2552373854406</v>
+      </c>
+      <c r="O179" t="n">
+        <v>267.7705382247673</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>267.7705382247673</v>
+      </c>
+      <c r="O180" t="n">
+        <v>287.2552373854407</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>273.2552373854406</v>
+      </c>
+      <c r="O181" t="n">
+        <v>282.2487996818535</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>282.2487996818535</v>
+      </c>
+      <c r="O182" t="n">
+        <v>282.2487996818535</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>282.2487996818535</v>
+      </c>
+      <c r="O183" t="n">
+        <v>293.2552373854407</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>287.2552373854407</v>
+      </c>
+      <c r="O184" t="n">
+        <v>287.2552373854407</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>287.2552373854407</v>
+      </c>
+      <c r="O185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>293.2552373854407</v>
+      </c>
+      <c r="O186" t="n">
+        <v>303.2764343893174</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>303.2764343893174</v>
+      </c>
+      <c r="O187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
